--- a/finetuning/it_datasets/qa_dataset/qa_it_ariana_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_ariana_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -671,14 +676,71 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated hotel, check out The Penthouse located at Rue Medinat Radhoua, Ariana 2203. 
-This hotel is perfect for hotel lovers and offers a range of services and amenities to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.863442697441, 10.158754341088. For more details, visit their website at https://www.thepenthouse.tn/ or call them at 71 811 535.</t>
+          <t>**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated hotel in Ariana, Tunisia, with a 4.2 rating, located at Rue Medinat Radhoua with GPS coordinates 36.863442697441, 10.158754341088, and offering exceptional services and amenities?</t>
+          <t>Day Plan:
+Morning: Explore the iconic **The Penthouse** with its luxurious accommodations and array of amenities.
+Mid-Morning: Indulge in traditional Tunisian cuisine at the highly-rated mT`m SlyH Restaurant Salih.
+Midday: Visit the impressive issaweyet ariana Association, a museum showcasing the region's rich heritage and culture.
+Afternoon: Take a break at the scenic Sebkha Ariana, a seasonal lake offering breathtaking views and ample opportunities for relaxation.
+Evening: Explore the vibrant local cuisine at Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; for an authentic Middle Eastern dining experience.
+Night: Immerse yourself in Tunisian nightlife at EL BAAZZZ, a discotheque renowned for its lively atmosphere and energetic beats.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+YoYo Food is a restaurant located in Ariana, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of dishes including crepes, waffles, sandwiches, and salads. The restaurant is also known for its delicious ice cream and chocolate desserts. YoYo Food is situated in a convenient location, just a short walk from the city center. It is open 7 days a week, from 7am to midnight.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -776,14 +838,71 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Hotel Ennasr located at Hotel Ennasr, 16 Avenue Behi El Adgham Ariana, Governorate 2001. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84281, 10.11195. For more details, visit their website or call them at 55 270 719.</t>
+          <t>The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Ariana that is perfect for hotel lovers, offering a range of categories and holding a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the unique "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" (36.859846087721, 10.191601451664) for a taste of local culture.
+Mid-Morning: Visit the serene Sebkha Ariana, a picturesque lake with lush flora and fauna, perfect for a leisurely walk and nature appreciation.
+Midday: Indulge in authentic Tunisian cuisine at the highly-rated mT`m SlyH Restaurant Salih on Habib Bourguiba Avenue, known for its flavorful dishes and warm ambiance.
+Afternoon: Immerse yourself in the vibrant nightlife at EL BAAAZZ (36.846469739053, 10.174997461973), a popular discotheque with live performances and an energetic ambiance.
+Evening: Enjoy a delectable dinner at Ninos restaurant (36.860202, 10.1905046), renowned for its family-friendly atmosphere and reasonably priced menu.
+Night: Unwind and relax at LE SANCTUAIRE 24h bar, known for its cozy ambiance and welcoming staff, making it a great spot to end the evening.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+La Tavolata is a restaurant located in Ariana, Tunisia. It offers a variety of dishes, including pizza, pasta, and seafood. The restaurant is open daily from 12:00pm to 11:00pm and is located at V556+9JV La Tavolata, Av. Hedi Nouira, Ariana.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+5D TCV(Tunis) is a bus stop located in Ariana, Tunisia. It offers a convenient spot for travelers to board or disembark buses for their transportation needs. The bus stop is situated on Rue Hassen Ibn Thabet, providing easy access to the surrounding areas. With its prime location and reliable transportation options, 5D TCV(Tunis) plays a crucial role in the public transportation network of Ariana.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -881,15 +1000,71 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a place to stay, check out aychik homestay located at bolc A Appart A4-2, cite latif 1, Ariana 2037. 
-This top-rated destination is perfect for Hostellerie lovers and offers a range of Hostellerie categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8548548, 10.1533474. 
-For more details, call them at 73 449 075.</t>
+          <t>"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Hostellerie with a 5.0 rating in Ariana, located at bolc A Appart A4-2, cite latif 1, Ariana 2037?</t>
+          <t>Day Plan:
+Morning: Start your day with a stroll through the Ariana Souk, a bustling market with a vibrant atmosphere. Immerse yourself in the local culture and haggle for unique souvenirs.
+Mid-Morning: Visit the "aychik homestay" for a traditional Tunisian breakfast, where you can mingle with locals and savor authentic flavors.
+Midday: Explore the Sebkha Ariana, a stunning seasonal lake surrounded by lush vegetation, and enjoy a relaxing picnic amidst the serene atmosphere.
+Afternoon: Head to the Le Sanctuaire bar lounge for a refreshing drink and soak in the lively ambiance.
+Evening: Indulge in a culinary adventure at the Restaurant bocca beach, savoring delicious pizzas and enjoying the breathtaking sea views.
+Night: Experience the vibrant nightlife at EL BAAZZZ, a discotheque with an energetic atmosphere and renowned DJs spinning the latest tunes.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant bocca beach is a restaurant located in Sousse, Tunisia, offering a variety of dishes, including pizzas. It is located at 35.8293001 latitude and 10.6406309 longitude, and is open from 11:00 to 01:00 every day of the week.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Located in Ariana, the Ennasr 1 Bus Stop is a highly-rated transportation hub with a 4.8-star rating. It's conveniently situated on Av. de l'Ere Nouvelle, making it easily accessible for commuters.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -999,12 +1174,77 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated hotel, check out The Penthouse located at Rue Medinat Radhoua, Ariana 2203. This convivial destination is perfect for Hotel lovers and offers a range of services including a heated pool, bowling alley, and ice skating rink. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.863442697441, 10.158754341088. For more details, visit their website at https://www.thepenthouse.tn/ or call them at 71 811 535.</t>
+          <t>The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Which top-rated hotel in Ariana offers an exceptional experience with amenities like a heated pool, bowling alley, and ice skating rink?</t>
+          <t>Day Plan:
+Morning:
+- Exploring the Ariana metro station to experience the local transportation system.
+Mid-Morning:
+- Trying local cuisine at Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; for an authentic taste of Tunisian street food.
+Midday:
+- Visiting the Roundabout Menzah 6 monument to admire its historical significance and capture picturesque views.
+Afternoon:
+- Enjoying recreational activities at Sebkha Ariana, exploring the beautiful lake and its surrounding natural beauty.
+Evening:
+- Relaxing with a refreshing drink at EL BAAZZZ discotheque, immersing in the vibrant nightlife of Ariana.
+Night:
+- Experiencing cultural immersion at issaweyet ariana Association, gaining insights into the rich cultural heritage of the region.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Twins Garden is a restaurant located in Ariana, Tunisia, known for its pizzas. It is open from 6:30 am to midnight, and offers a range of dishes at reasonable prices. The restaurant has received positive reviews for its friendly servers and cozy ambiance.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1342,77 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated hotel, check out Hotel Ennasr located at 16 Avenue Behi El Adgham Ariana, Governorate 2001. This hotel is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84281, 10.11195. For more details, visit their website or call them at 55 270 719.</t>
+          <t>Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel, Hotel Ennasr, with a category range to suit hotel enthusiasts in the Ariana Governorate?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the Gulf of Tunis and enjoy its stunning coastal beauty.
+**Mid-Morning:**
+* Visit the "aychik homestay" for a local hostel experience and immerse yourself in the vibrant culture of Ariana's streets.
+**Midday:**
+* Try local cuisine at the highly-rated Restaurant Thailandais Thai House Ariana, known for its authentic Thai flavors.
+**Afternoon:**
+* Visit the Poissonnerie VICINO AL MARE fish market and witness the freshest seafood available in town.
+**Evening:**
+* Engage in outdoor activities like cycling or walking at Sebkha Ariana, a seasonal lake offering a serene natural setting.
+**Night:**
+* Experience the lively ambiance of EL BAAZZZ discotheque and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 7 (47, 5C, 5D) is a bus stop located in Ariana, Tunisia, at the coordinates (36.855111625206, 10.176651154696). It offers a convenient transportation option for residents and visitors of the area.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1213,12 +1518,77 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a delightful dining experience, visit Restaurant les dents de la mer located at V53F+MCH Restaurant les dents de la mer, Ariana. With a rating of 3.5, it's a popular choice among Restaurant lovers. To get there, use these GPS coordinates: 43.6956481, 7.2731809. For more details, visit their website at https://www.facebook.com/Restaurantfeudebois or call them at 51 661 551.</t>
+          <t>Restaurant les dents de la mer is a seafood restaurant located in Ariana, Tunisia. It is rated 3.5 out of 5 stars on Google and has 38 reviews. The restaurant offers a variety of seafood dishes, including fish, shrimp, and calamari. It is also known for its affordable prices. The restaurant is located at V53F+MCH Restaurant les dents de la mer, Ariana, and is open daily from 11:00 am to 11:00 pm.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a popular dining spot with a rating of 3.5 in Ariana that offers a delightful dining experience?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the scenic Sebkha Ariana, a natural lake with lush vegetation and wildlife, perfect for a relaxing walk or bike ride.
+**Mid-Morning:**
+- Try local cuisine at Damascino, a highly-rated restaurant known for its authentic Syrian and Lebanese flavors, particularly its kebabs and hummus.
+**Midday:**
+- Visit the historical Roundabout Menzah 6, a monument representing the city's rich past.
+**Afternoon:**
+- Enjoy recreational skating, bowling, and swimming at The Penthouse, a friendly aparthotel with various entertainment amenities.
+**Evening:**
+- Experience the lively nightlife at EL BAAZZZ, a discotheque renowned for its energetic atmosphere and late-night festivities.
+**Night:**
+- Relax and unwind with a refreshing drink at LE SANCTUAIRE, a 24-hour bar with a cozy ambiance and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Damascino is a highly-rated restaurant in Ariana, Tunisia, known for its authentic Syrian and Lebanese cuisine. Situated at 38 Rue Mouawiya Ibn Abi Sofiene, it offers a warm and inviting ambiance with a focus on providing a memorable dining experience. Customers rave about the generous portions, fresh ingredients, and exceptional flavors, particularly highlighting the mouthwatering kebabs, salads, and hummus. With its convenient weekday hours of 11:00-00:00 and easy accessibility, Damascino is a popular destination for both locals and visitors seeking a taste of the Middle East in the heart of Ariana.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 8 Bus Stop is a highly rated bus stop located at Av. Othman Ibn Affane in Ariana, Tunisia. It has received an average rating of 4.4 out of 5 based on 5 reviews, indicating customer satisfaction with the services provided.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1324,12 +1694,71 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a top-rated Poissonnerie, check out Poissonnerie VICINO AL MARE located at V567+MCQ Poissonnerie VICINO AL MARE, Av. Mohamed Rached El Baji, Ariana. This 5.0-rated spot offers a range of Poissonnerie options to choose from. It's open during these hours: 08:00-20:00, but closed on Monday. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at or call them at 20 808 300.</t>
+          <t>Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Poissonnerie with a 5.0 rating in Ariana, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the historic Sebkha Ariana, a seasonal lake with lush vegetation and wildlife.
+Mid-Morning: Delve into the rich Tunisian culture at Association Issaweyet Ariane, a highly-rated museum showcasing the region's heritage.
+Midday: Try local specialties like chawarmas and hamburgers at Rozana Kebab, known for its appetizing dishes and friendly ambiance.
+Afternoon: Visit the popular Hamburgasm burger joint and savor their delectable selection of burgers, earning a 4.0 rating with its high-quality ingredients.
+Evening: Head to Rosmarino, a renowned pizzeria acclaimed for its authentic Italian cuisine, to enjoy a satisfying meal in a charming atmosphere.
+Night: Experience the energetic nightlife at EL BAAZZZ discotheque, known for its lively ambiance and top DJs, making it a hotspot for music enthusiasts.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant bocca beach is a restaurant located in Sousse, Tunisia, offering a variety of dishes, including pizzas. It is located at 35.8293001 latitude and 10.6406309 longitude, and is open from 11:00 to 01:00 every day of the week.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1868,71 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Restaurant bocca beach located at Restaurant bocca beach, Mariana club Oued Blibene, Sousse, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 3.5, it's a must-visit spot. It's open during these hours: 11:00-01:00, To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at http://bocca-beach.com/ or call them at 26 444 888.</t>
+          <t>Restaurant bocca beach is a restaurant located in Sousse, Tunisia, offering a variety of dishes, including pizzas. It is located at 35.8293001 latitude and 10.6406309 longitude, and is open from 11:00 to 01:00 every day of the week.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a top-rated destination offering a variety of Restaurant options for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Exploring the Ariana metro station and its surroundings
+Mid-Morning: Trying local cuisine at Restaurant les dents de la mer
+Midday: Visiting Sebkha Ariana for a relaxing walk or picnic
+Afternoon: Enjoying a refreshing drink at LE SANCTUAIRE bar lounge
+Evening: Experiencing the lively atmosphere at EL BAAZZZ discotheque
+Night: Satisfying burger cravings at Hamburgasm</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant les dents de la mer is a restaurant specializing in seafood located in Ariana (lon : 7.2731809, lat : 43.6956481). It has 38 reviews on google map with an average note of 3.5 / 5. According to the reviews, the prices are affordable and the seafood is of good quality.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Ennahli is a bus stop located in ariana, Tunisia at the coordinates (36.8894577, 10.1601223). This place has a rating of 4.0 out of 5 based on 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1550,12 +2038,71 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a charming dining experience, visit Restaurant les dents de la mer at V53F+MCH Restaurant les dents de la mer, Ariana. This popular destination is perfect for Restaurant enthusiasts and has a rating of 3.5. To get there, use these GPS coordinates: (43.6956481, 7.2731809). For more details, visit their website at https://www.facebook.com/Restaurantfeudebois or call them at 51 661 551.</t>
+          <t>Restaurant les dents de la mer is a restaurant specializing in seafood located in Ariana (lon : 7.2731809, lat : 43.6956481). It has 38 reviews on google map with an average note of 3.5 / 5. According to the reviews, the prices are affordable and the seafood is of good quality.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>If you're seeking a captivating gastronomic experience in Ariana, where can you find Restaurant les dents de la mer, known for its enchanting ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring The Penthouse
+Mid-Morning: Enjoying local cuisine at InstaPasta
+Midday: Visiting the picturesque Sebkha Ariana lake
+Afternoon: Shopping at "Street food rades"
+Evening: Taking a guided tour of the fascinating "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" museum
+Night: Dancing the night away at EL BAAZZZ discotheque</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+InstaPasta is a popular restaurant located in Ariana,Tunisia. The restaurant has a rating of 4.5 and offers a wide variety of dishes at affordable prices. Some of the most popular dishes include sandwiches, pizzas, and pasta. The restaurant also offers a delivery service. InstaPasta is located on 19 Rue Mouawiya Ibn Abi Sofiene, and is open from 11:00am to 11:00pm.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+**Ennasr 2** is a bus stop located in Ariana, Tunisia at the coordinates of 36.86474, 10.15374. Ennasr 2 has received an overall rating of 4.0 from 26 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1653,12 +2200,71 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Roundabout Menzah 6 located at V53C+939 Roundabout Menzah 6, Ariana. This top-rated Fabricant de monuments is perfect for Fabricant de monuments lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8487901, 10.1654024.</t>
+          <t>Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Ariana can you visit a highly rated Fabricant de monuments with GPS coordinates 36.8487901, 10.1654024?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana Mosque, known for its stunning architecture and historical significance.
+Mid-Morning: Visit the Sebkha Ariana, a seasonal lake that offers a tranquil setting for relaxation or exploration.
+Midday: Try local cuisine at Restaurant Thailandais Thai House Ariana, where you can savor authentic Thai flavors.
+Afternoon: Engage in outdoor activities at Roundabout Menzah 6, a popular monument in Ariana.
+Evening: Visit EL BAAZZZ discotheque for lively entertainment and dancing.
+Night: Relax with a calming stay at Hotel Ennasr, enjoying its luxurious amenities and comfortable accommodations.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+InstaPasta is a popular restaurant located in Ariana,Tunisia. The restaurant has a rating of 4.5 and offers a wide variety of dishes at affordable prices. Some of the most popular dishes include sandwiches, pizzas, and pasta. The restaurant also offers a delivery service. InstaPasta is located on 19 Rue Mouawiya Ibn Abi Sofiene, and is open from 11:00am to 11:00pm.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Ennahli is a bus stop located in ariana, Tunisia at the coordinates (36.8894577, 10.1601223). This place has a rating of 4.0 out of 5 based on 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1764,14 +2370,71 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great museum to visit, check out jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana located at 2080 Rue Sidi Ammar, Ariana. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:30, but closed on None. To get there, use these GPS coordinates: 36.859846087721, 10.191601451664. For more details, visit their website at None or call them at 22 502 905.</t>
+          <t>jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated museum with a wide selection of exhibits, open from 9:00 AM to 10:30 PM daily?</t>
+          <t>Day Plan:
+Morning: Visit the Sebkha Ariana, a beautiful seasonal lake offering a relaxing and explorative natural setting.
+Mid-Morning: Enjoy a delicious breakfast at JAGGER, known for its generous portions and friendly service.
+Midday: Explore the cultural heritage of Ariana by visiting the "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana," a museum offering a captivating cultural experience.
+Afternoon: Indulge in authentic Tunisian cuisine at the highly-rated mT`m SlyH Restaurant Salih, known for its delicious food and convenient location.
+Evening: Take a guided tour of the Ariana metro station, part of the Ariana metro line, to experience the city's transportation system.
+Night: Experience the vibrant atmosphere of EL BAAZZZ discotheque, a popular nightlife destination in Ariana.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Fairouz Lebanese Restaurant is a restaurant located in Ariana, Tunisia. It is highly rated for its delicious Lebanese cuisine, with many positive reviews praising its falafels, sandwiches, and overall quality. The restaurant is open from 12:00 to 23:00 every day except Sunday and is located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The "6B Bus Stop" is located in Ariana, at the coordinates (21.257624, 72.724922). It is a bus stop that serves the 6B bus line. The bus stop is located on a busy street and is easily accessible by foot or by public transportation.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1877,14 +2540,71 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana located at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, 2080 Rue Sidi Ammar, Ariana. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:30. To get there, use these GPS coordinates: 36.859846087721, 10.191601451664. For more details, visit their website at https://www.google.com/maps/place/%D8%AC%D9%85%D8%B9%D9%8A%D9%91%D8%A9+%D8%B9%D9%8A%D8%B3%D8%A7%D9%88%D9%8A%D9%91%D8%A9+%D8%A3%D8%B1%D9%8A%D8%A7%D9%86%D8%A9+Association+issaweyet+ariana%E2%80%AD/data=!4m7!3m6!1s0x12e2cb5d947d8233:0xbe4828a9c7ce1563!8m2!3d36.8592614!4d10.1906703!16s%2Fg%2F11h7h_mzlz!19sChIJM4J9lF3L4hIRYxXOx6koSL4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 502 905.</t>
+          <t>This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can I find a top-rated Musee destination in Ariana known for its diverse selection of Musee exhibits?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana metro station, a central transportation hub in the city.
+Mid-Morning: Visit "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana", a highly-rated museum showcasing the rich history and heritage of the region.
+Midday: Try local cuisine at Restaurant Thailandais Thai House Ariana, known for its fresh ingredients, authentic flavors, and friendly service.
+Afternoon: Explore the scenic Sebkha Ariana, a seasonal lake offering a unique and beautiful natural setting perfect for relaxation or exploration.
+Evening: Experience Tunisian culture with a traditional dinner at mT`m SlyH Restaurant Salih, highly rated for its delicious food, friendly service, and convenient location.
+Night: Enjoy live music and dancing at EL BAAZZZ, a discotheque with a 5-star rating and one review, open from 9 PM to 5 AM on weekends.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 8 (5C, 5D) is a bus stop located in the Ariana district. It offers public transportation services to the local community, making it a convenient option for commuters and travelers alike. The bus stop is situated at the intersection of Rue Doha and El Menzah 8, providing easy access to nearby businesses, residential areas, and other transportation hubs.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1990,12 +2710,71 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana located at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, 2080 Rue Sidi Ammar, Ariana. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot and open during these hours: 09:00-22:30. To get there, use these GPS coordinates: 36.859846087721, 10.191601451664. For more details, call them at 22 502 905.</t>
+          <t>jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated Musee destination in Ariana with coordinates 36.859846087721, 10.191601451664?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Ariana Market, showcasing local crafts and unique products.
+Mid-Morning: Try local cuisine at the renowned Mustache restaurant, known for its delicious pizzas, burgers, and pastas.
+Midday: Explore the stunning Sebkha Ariana, a seasonal lake offering a tranquil setting for relaxation and nature appreciation.
+Afternoon: Visit the historic Roundabout Menzah 6, a monument with significant cultural value.
+Evening: Immerse yourself in the lively nightlife scene at EL BAAZZZ, a popular discotheque with a vibrant atmosphere.
+Night: Enjoy a relaxing and indulgent spa experience at a local spa, offering rejuvenating treatments and a tranquil ambiance.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Mustache is a highly-rated restaurant located at 5 Rue Ahmed Tlili, Ariana 2091, Tunisia. It serves a variety of dishes including pizzas, burgers, sandwiches, and pastas. The restaurant is open from 11:30 AM to midnight, and is closed on Mondays. Mustache has received over 75 reviews on Google Maps, with an average rating of 4.5 out of 5. Reviewers have praised the restaurant's delicious food, friendly service, and reasonable prices.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+5D TCV(Tunis) is a bus stop located in Ariana, Tunisia. It offers a convenient spot for travelers to board or disembark buses for their transportation needs. The bus stop is situated on Rue Hassen Ibn Thabet, providing easy access to the surrounding areas. With its prime location and reliable transportation options, 5D TCV(Tunis) plays a crucial role in the public transportation network of Ariana.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2872,78 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in ariana, Sebkha Ariana is a top-rated destination for Lac saisonnier lovers. With a rating of 3.4, it's a must-visit spot. It's located at Sebkha Ariana. To get there, use these GPS coordinates: 36.91716, 10.23727. For more details, visit their website at https://www.google.com/maps/place/Sebkha+Ariana/data=!4m7!3m6!1s0x12e2ca447899882d:0x191cc3c781e0debc!8m2!3d36.9071746!4d10.2487967!16s%2Fg%2F121_5bhr!19sChIJLYiZeETK4hIRvN7ggcfDHBk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Lac saisonnier destination with a rating of 3.4 in ariana?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the cultural heritage of Association issaweyet ariana, a highly-rated museum showcasing the region's rich history.
+**Mid-Morning:**
+* Visit Sebkha Ariana, a scenic seasonal lake, perfect for a relaxing walk or bike ride amidst lush vegetation and wildlife.
+**Midday:**
+* Indulge in a delectable Tunisian dining experience at Restaurant Chabrouch, renowned for its authentic cuisine and excellent reviews.
+**Afternoon:**
+* Experience the vibrant nightlife at EL BAAZZZ discotheque, known for its lively ambiance and top DJs.
+* Immerse yourself in the local flavors at Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, a popular fast food restaurant serving delicious chapatis and Middle Eastern delicacies.
+**Evening:**
+* Enjoy a family-friendly dinner at Ninos, offering an extensive menu, reasonable prices, and a children's play area.
+**Night:**
+* Relax with a refreshing drink at LE SANCTUAIRE, a 24h bar with a 5-star rating, and soak in the city's nightlife.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Restaurant Chabrouch** is a highly-rated restaurant boasting 36 reviews and a rating of 4.2. It is located in ariana, making it convenient for locals and tourists alike. The restaurant's weekday timing is from 11:00-23:00, and it is known for its cuisine tunisienne. With its convenient location, excellent reviews, and delectable cuisine, Restaurant Chabrouch is a must-visit for anyone seeking an authentic Tunisian dining experience.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+**Ennasr 2** is a bus stop located in Ariana, Tunisia at the coordinates of 36.86474, 10.15374. Ennasr 2 has received an overall rating of 4.0 from 26 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2192,12 +3037,71 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for something fun to do, check out Reservoirs Eau Potable. This top-rated destination is perfect for Drinking water lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.9941, -7.60194.</t>
+          <t>Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>What is the must-visit destination in Ariana for Drinking water enthusiasts, as indicated by its 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical beauty of Ariana by visiting Chez Mamino, an establishment known for its rustic charm and delectable cuisine.
+Mid-Morning: Indulge in a leisurely shopping experience at Ariana Mall, where you can find an array of local and international brands.
+Midday: Delight in an authentic Tunisian lunch at mT`m SlyH Restaurant Salih, savoring the traditional flavors and warm hospitality.
+Afternoon: Immerse yourself in the tranquility of Sebkha Ariana, a picturesque lake surrounded by lush greenery and abundant wildlife.
+Evening: Venture to LE SANCTUAIRE, a vibrant bar lounge with an inviting atmosphere and an extensive beverage menu.
+Night: Conclude the day with a delightful dinner at Rozana Kebab, renowned for its tantalizing chawarmas and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 6 is a bus stop located at El Menzah 6 (5C, 5D), Rue Mouawiya Ibn Abi Sofiene, Ariana. It is rated 5.0 and has 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2291,14 +3195,73 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Reservoir Eaux Pluviales located at Reservoir Eaux Pluviales, Ariana. 
-This top-rated destination is perfect for Lac saisonnier lovers and offers a range of Lac saisonnier to choose from. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>Reservoir Eaux Pluviales, located in Ariana, is a seasonal lake nestled amidst the urban landscape. This water body serves as a haven for recreation and relaxation, offering visitors a scenic retreat within easy reach of the city center. Its precise coordinates are (36.860202, 10.1905046).</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>What is the name of the popular destination in Ariana that offers an array of Lac saisonnier experiences and is highly rated?</t>
+          <t>Day Plan:
+Morning: Explore the historical and cultural heritage of Ariana at the "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana", a highly-rated museum showcasing the region's rich past.
+Mid-Morning: Indulge in mouthwatering local cuisine at "Ninos", known for its extensive menu, affordable prices, and family-friendly atmosphere.
+Midday: Visit the scenic "Sebkha Ariana", a seasonal lake offering a tranquil setting for relaxation, exploration, or a picnic amid lush vegetation.
+Afternoon: Try your luck at the "Poissonnerie VICINO AL MARE", a well-stocked fish market offering a wide variety of fresh seafood. You can also take a walk around the "Roundabout Menzah 6", a significant landmark in Ariana.
+Evening: Enjoy a vibrant nightlife experience at "EL BAAZZZ", a popular discotheque known for its lively ambiance and energetic atmosphere.
+Night: Experience the local culture at "Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;", a fast-food restaurant serving traditional Middle Eastern cuisine, open late into the evening.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Echemi Ennasr, located in the bustling city of Ariana, offers a delectable dining experience in a friendly and welcoming atmosphere. This reputed restaurant has earned a remarkable 4.0 rating based on the reviews of 152 satisfied customers.
+One of Echemi Ennasr's notable features is its extensive menu, which includes a wide variety of dishes to cater to diverse tastes. It is particularly renowned for its sandwiches, pizzas, and escalopes. The restaurant takes pride in using only the finest ingredients, ensuring freshness and impeccable quality with every dish.
+Situated at coordinates (36.864739580827, 10.167664519529), Echemi Ennasr is conveniently located in the Residence Ettaoufik, 2 Av. Hedi Nouira, making it easily accessible to both locals and visitors. Whether you're seeking a quick bite or a leisurely dining experience, Echemi Ennasr is an excellent choice.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 8 Bus Stop is a highly rated bus stop located at Av. Othman Ibn Affane in Ariana, Tunisia. It has received an average rating of 4.4 out of 5 based on 5 reviews, indicating customer satisfaction with the services provided.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2396,14 +3359,71 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out EL BAAZZZ located at R5WF+GXF EL BAAZZZ, Rue Mohamed Ikbal. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:00-05:00. To get there, use these GPS coordinates: 36.846469739053, 10.174997461973.</t>
+          <t>EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Ariana can you experience a top-rated Discotheque destination with excellent reviews and a lively atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant streets of Ariana and visit the "aychik homestay" hostel for a lively ambiance.
+Mid-Morning: Take a guided tour of the impressive Ariana metro station, an architectural marvel that connects the city.
+Midday: Indulge in delectable local cuisine at "**Restaurant Chabrouch**," renowned for its authentic Tunisian flavors and warm hospitality.
+Afternoon: Visit the Roundabout Menzah 6, a captivating monument symbolizing Ariana's cultural heritage.
+Evening: Enjoy a delightful shopping experience at the Ariana Mall, offering a wide range of retail options and local crafts.
+Night: Relax and unwind with a refreshing drink at "LE SANCTUAIRE," a charming bar lounge with a cozy atmosphere and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Restaurant Chabrouch** is a highly-rated restaurant boasting 36 reviews and a rating of 4.2. It is located in ariana, making it convenient for locals and tourists alike. The restaurant's weekday timing is from 11:00-23:00, and it is known for its cuisine tunisienne. With its convenient location, excellent reviews, and delectable cuisine, Restaurant Chabrouch is a must-visit for anyone seeking an authentic Tunisian dining experience.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 6 is a bus stop located at El Menzah 6 (5C, 5D), Rue Mouawiya Ibn Abi Sofiene, Ariana. It is rated 5.0 and has 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2505,12 +3525,72 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great place to relax, check out LE SANCTUAIRE located at Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, Ariana 2058. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on None. To get there, use these GPS coordinates: 36.8663236, 10.183276.</t>
+          <t>LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated bar lounge destination with a 5.0 rating and 24/7 availability in Ariana?</t>
+          <t>Day Plan:
+Morning: Explore the bustling streets of Ariana and immerse yourself in local life by visiting the vibrant "aychik homestay" hostel.
+Mid-Morning: Take a guided tour of the highly-rated jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana museum to delve into the rich cultural heritage and history of the region.
+Midday: Indulge in a tantalizing culinary experience at Pizza Town, renowned for its mouthwatering pizzas, creating unforgettable gastronomic memories.
+Afternoon: Engage in outdoor activities at the scenic Sebkha Ariana, a seasonal lake offering a picturesque setting for a relaxing walk or bike ride surrounded by lush vegetation and abundant wildlife.
+Evening: Head to EL BAAZZZ discotheque to experience the lively nightlife energy of Ariana, dance the night away, and create thrilling memories on the dance floor.
+Night: Unwind and relax at LE SANCTUAIRE bar lounge, known for its 24-hour availability, cozy ambiance, and exceptional service, while sipping on refreshing beverages and soaking in the vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Pizza Town**
+Nestled amidst the bustling streets of Ariana, Pizza Town offers a tantalizing culinary experience with its mouthwatering pizzas. Located conveniently at (36.846808892138, 10.174639714032), the restaurant is open daily from 11:30 am to 11:30 pm, except on public holidays. With its cozy ambiance and impeccable service, Pizza Town has earned a solid 4.0 rating among patrons.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+5D TCV(Tunis) is a bus stop located in Ariana, Tunisia. It offers a convenient spot for travelers to board or disembark buses for their transportation needs. The bus stop is situated on Rue Hassen Ibn Thabet, providing easy access to the surrounding areas. With its prime location and reliable transportation options, 5D TCV(Tunis) plays a crucial role in the public transportation network of Ariana.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2608,12 +3688,71 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out EL BAAZZZ located at R5WF+GXF EL BAAZZZ, Rue Mohamed Ikbal, Ariana. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:00-05:00, but closed on Monday, Tuesday, Wednesday, Thursday, Friday. To get there, use these GPS coordinates: 36.846469739053, 10.174997461973.</t>
+          <t>EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated discotheque destination open late at night in Ariana with a range of options to choose from?</t>
+          <t>Day Plan:
+Morning: Begin the day with a visit to **Restaurant Chabrouch** for a delightful Tunisian dining experience. Immerse yourself in the local flavors and enjoy the highly-rated cuisine.
+Mid-Morning: Explore **jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana**, a museum that unveils the rich cultural heritage of Ariana. Engage with the captivating exhibits and gain insights into the region's past.
+Midday: Take a leisurely walk around **Sebkha Ariana**, a picturesque lake offering a serene natural setting. Stroll along the lush trails, breathe in the fresh air, and appreciate the beauty of the surroundings.
+Afternoon: Indulge in a shopping spree at **Ariana Mall**. Browse through a variety of local and international brands, find unique souvenirs, and experience the vibrant shopping scene of Ariana.
+Evening: Head to **LE SANCTUAIRE**, a 5-star bar lounge, for a relaxing evening. Sip on refreshing drinks, enjoy the lively atmosphere, and unwind after a day of exploration.
+Night: Wrap up the day with dinner at **mT`m SlyH Restaurant Salih**. Savor authentic Tunisian dishes in a traditional setting, delighting in the flavors and warm hospitality.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Restaurant Chabrouch** is a highly-rated restaurant boasting 36 reviews and a rating of 4.2. It is located in ariana, making it convenient for locals and tourists alike. The restaurant's weekday timing is from 11:00-23:00, and it is known for its cuisine tunisienne. With its convenient location, excellent reviews, and delectable cuisine, Restaurant Chabrouch is a must-visit for anyone seeking an authentic Tunisian dining experience.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3850,73 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated discotheque, check out EL BAAZZZ located at R5WF+GXF EL BAAZZZ, Rue Mohamed Ikbal. This popular spot is open during these hours: 21:00-05:00, but closed on Monday, Tuesday, Wednesday, Thursday and Friday. For more details, visit their website at https://www.google.com/maps/place/EL+BAAZZZ/data=!4m7!3m6!1s0x12fd35000188fd8f:0xf2b2d638fec5302c!8m2!3d36.8463142!4d10.1749284!16s%2Fg%2F11vylg73r9!19sChIJj_2IAQA1_RIRLDDF_jjWsvI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated discotheque known as EL BAAZZZ?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana ruins, which are the remains of an ancient Roman city.
+Mid-Morning: Try local cuisine at Ninos, a family-friendly restaurant with a children's play area.
+Midday: Visit the Ariana Mosque, a beautiful example of Islamic architecture, and then relax in Sebkha Ariana, a seasonal lake with lush vegetation and wildlife.
+Afternoon: Shop for souvenirs at the Ariana Mall.
+Evening: Take a guided tour of the Echemi Ennasr, a reputed restaurant with a 4.0 rating and a wide variety of dishes.
+Night: Enjoy the lively nightlife at EL BAAZZZ, a discotheque with top DJs and live performances.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Echemi Ennasr, located in the bustling city of Ariana, offers a delectable dining experience in a friendly and welcoming atmosphere. This reputed restaurant has earned a remarkable 4.0 rating based on the reviews of 152 satisfied customers.
+One of Echemi Ennasr's notable features is its extensive menu, which includes a wide variety of dishes to cater to diverse tastes. It is particularly renowned for its sandwiches, pizzas, and escalopes. The restaurant takes pride in using only the finest ingredients, ensuring freshness and impeccable quality with every dish.
+Situated at coordinates (36.864739580827, 10.167664519529), Echemi Ennasr is conveniently located in the Residence Ettaoufik, 2 Av. Hedi Nouira, making it easily accessible to both locals and visitors. Whether you're seeking a quick bite or a leisurely dining experience, Echemi Ennasr is an excellent choice.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 8 (5C, 5D) is a bus stop located in the Ariana district. It offers public transportation services to the local community, making it a convenient option for commuters and travelers alike. The bus stop is situated at the intersection of Rue Doha and El Menzah 8, providing easy access to nearby businesses, residential areas, and other transportation hubs.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2826,12 +4026,71 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated spot to satisfy your cravings, check out Damascino located at 38 Rue Mouawiya Ibn Abi Sofiene. This renowned Restaurant offers a range of cuisines, perfect for any food enthusiast. With a rating of 4.1, it's a must-visit spot for dining lovers. It's open during these hours: 11:00-00:00, but closed on undefined. To get there, use these GPS coordinates: 36.854167784031, 10.172850177704. For more details, visit their website at https://www.facebook.com/damascino.orientalfood/ or call them at 51 514 080.</t>
+          <t>Damascino is a oriental restaurant located in Ariana, Tunisia (36.854167784031, 10.172850177704). It has received 314 reviews and has a rating of 4.1 out of 5. The restaurant offers a wide variety of oriental dishes, including Syrian and Lebanese cuisine. It is known for its generous portions, high quality ingredients, and friendly service.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Which highly-rated restaurant in Ariana offers a diverse culinary experience and is known for its exceptional cuisine?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the vibrant "aychik homestay" hostel in Ariana, offering comfortable accommodations and a warm atmosphere. Take a refreshing stroll around the neighborhood, soaking in the local charm.
+Mid-Morning: Indulge in a delightful local breakfast at "JAGGER," known for its generous portions and friendly service. Enjoy the lively atmosphere and savor the flavors of traditional Tunisian cuisine.
+Midday: Immerse yourself in the fascinating history and culture of Ariana by visiting the intriguing Sebkha Ariana lake. Its unique natural setting offers a peaceful retreat for relaxation or exploration. Capture the beauty of the surrounding lush vegetation and wildlife as you wander along its shores.
+Afternoon: Treat your taste buds to an authentic Tunisian culinary experience at "Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;". This fast-food restaurant is renowned for its delicious chapatis and mouthwatering Middle Eastern dishes. Enjoy a satisfying and flavorful lunch while absorbing the local ambiance.
+Evening: As the sun begins to set, make your way to the scenic Rosmarino pizzeria. Indulge in a tantalizing Italian dinner, relishing the authentic flavors and inviting atmosphere. The wide selection of pizzas and other dishes promises a memorable dining experience.
+Night: Conclude your day with a captivating cultural immersion at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana museum. Dive into the rich heritage of Ariana and explore the captivating exhibits that showcase the city's history and artistic traditions.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant les dents de la mer is a seafood restaurant located in Ariana, Tunisia. It is rated 3.5 out of 5 stars on Google and has 38 reviews. The restaurant offers a variety of seafood dishes, including fish, shrimp, and calamari. It is also known for its affordable prices. The restaurant is located at V53F+MCH Restaurant les dents de la mer, Ariana, and is open daily from 11:00 am to 11:00 pm.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Terminus 635 is a bus stop located in Ariana, Tunisia. It has a rating of 3.3 out of 5 stars on Google Maps, based on 7 reviews. The bus stop is located at coordinates (36.860202, 10.1905046).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2929,12 +4188,71 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated dining experience, check out HlWy conveniently located at V54W+2W5 HlWy. This restaurant is a must-visit spot with a rating of 4.3, and it offers a range of dishes to choose from.</t>
+          <t>HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find the highly-rated dining spot, HlWy, that boasts a rating of 4.3 and is conveniently situated on V54W+2W5 HlWy?</t>
+          <t>Day Plan:
+Morning: Explore the lively ambiance and unique offerings of the Ariana Central Market.
+Mid-Morning: Embark on a guided tour of the intriguing Musée of Ariana to delve into the region's rich cultural heritage.
+Midday: Savor the delectable flavors of traditional Tunisian cuisine at the highly-rated Restaurant Chabrouch.
+Afternoon: Immerse yourself in the natural beauty of Sebkha Ariana, a seasonal lake that offers stunning views and opportunities for tranquil relaxation.
+Evening: Experience the vibrant nightlife of Ariana at EL BAAZZZ, a discotheque renowned for its energetic atmosphere and spirited ambiance.
+Night: Unwind and rejuvenate with a relaxing massage at a local spa, allowing yourself to fully embrace the serenity of your surroundings.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Restaurant Chabrouch** is a highly-rated restaurant boasting 36 reviews and a rating of 4.2. It is located in ariana, making it convenient for locals and tourists alike. The restaurant's weekday timing is from 11:00-23:00, and it is known for its cuisine tunisienne. With its convenient location, excellent reviews, and delectable cuisine, Restaurant Chabrouch is a must-visit for anyone seeking an authentic Tunisian dining experience.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Located in Ariana, the Ennasr 1 Bus Stop is a highly-rated transportation hub with a 4.8-star rating. It's conveniently situated on Av. de l'Ere Nouvelle, making it easily accessible for commuters.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3044,12 +4362,71 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great place to eat, check out Damascino located at 38 Rue Mouawiya Ibn Abi Sofiene, Ariana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.854167784031, 10.172850177704. For more details, visit their website at https://www.facebook.com/damascino.orientalfood/ or call them at 51 514 080.</t>
+          <t>Damascino is a highly-rated restaurant in Ariana, Tunisia, known for its authentic Syrian and Lebanese cuisine. Situated at 38 Rue Mouawiya Ibn Abi Sofiene, it offers a warm and inviting ambiance with a focus on providing a memorable dining experience. Customers rave about the generous portions, fresh ingredients, and exceptional flavors, particularly highlighting the mouthwatering kebabs, salads, and hummus. With its convenient weekday hours of 11:00-00:00 and easy accessibility, Damascino is a popular destination for both locals and visitors seeking a taste of the Middle East in the heart of Ariana.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Ariana, known for its diverse menu and perfect for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana metro station, a central hub in the city, and observe the daily life of the locals.
+Mid-Morning: Visit the historic Roundabout Menzah 6, a notable monument with cultural significance.
+Midday: Try local cuisine at Poissonnerie VICINO AL MARE, a well-regarded fish market offering fresh seafood dishes.
+Afternoon: Enjoy a picnic at Sebkha Ariana, a scenic seasonal lake with lush surroundings, perfect for a peaceful retreat.
+Evening: Experience the vibrant atmosphere at EL BAAZZZ discotheque, a popular nightlife spot with lively music and a welcoming crowd.
+Night: Relax with a drink at LE SANCTUAIRE, a cozy bar lounge with a sophisticated ambiance and a refreshing menu.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Ennahli is a bus stop located in ariana, Tunisia at the coordinates (36.8894577, 10.1601223). This place has a rating of 4.0 out of 5 based on 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3151,12 +4528,71 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out YoYo food located at 18 Rue des juges, Ariana 2091. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 36.84638356902, 10.162835523333. For more details, visit their website at https://www.google.com/maps/place/YoYo+food/data=!4m7!3m6!1s0x12fd3370a00a1e35:0x23fe06c009acb91c!8m2!3d36.8461046!4d10.1633618!16s%2Fg%2F11j9n1wg5_!19sChIJNR4KoHAz_RIRHLmsCcAG_iM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>YoYo Food is a restaurant located in Ariana, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of dishes including crepes, waffles, sandwiches, and salads. The restaurant is also known for its delicious ice cream and chocolate desserts. YoYo Food is situated in a convenient location, just a short walk from the city center. It is open 7 days a week, from 7am to midnight.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant worth visiting inariana, perfect for those who love dining out?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana metro station and its surroundings, taking in the sights and sounds of the local area.
+Mid-Morning: Visit the Poissonnerie VICINO AL MARE fish market to experience the vibrant atmosphere and purchase fresh seafood for a delicious lunch.
+Midday: Savor a delightful meal at Ninos, a family-friendly restaurant known for its extensive menu and reasonable prices.
+Afternoon: Relax and rejuvenate at the mT`m SlyH Restaurant Salih, enjoying traditional Tunisian cuisine in a welcoming ambiance.
+Evening: Take a guided tour of the Rosmarino pizzeria, renowned for its authentic Italian cuisine, and indulge in a delectable dinner.
+Night: Experience the lively nightlife at EL BAAZZZ discotheque, dancing to energetic music and enjoying the unique ambiance.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3262,12 +4698,77 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a great Cafe et restaurant de grillades, check out JAGGER located at Av. de Hedi Nouira. This top-rated destination is a must-visit spot with a rating of 4.0. It's open during these hours: 07:30-01:00 and closed on . To get there, use these GPS coordinates: 36.855987542508, 10.159693693572. For more details, visit their website at or call them at 44 125 122.</t>
+          <t>JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated JAGGER, a Cafe et restaurant de grillades with a 4.0 rating, in Ariana?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the cultural heritage and history of Ariana at the **jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana** museum.
+**Mid-Morning:**
+* Try the delicious burgers at **Mr Meat** for a quick and satisfying meal.
+**Midday:**
+* Visit the **Sebkha Ariana** for a scenic nature walk and relaxation in the beautiful surroundings.
+**Afternoon:**
+* Go shopping for souvenirs and local goods at the **Ariana Mall**.
+**Evening:**
+* Enjoy a traditional Tunisian dinner at the highly-rated **mT`m SlyH Restaurant Salih**.
+**Night:**
+* Experience the vibrant nightlife at **EL BAAZZZ** discotheque and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Twins Garden is a restaurant located in Ariana, Tunisia, known for its pizzas. It is open from 6:30 am to midnight, and offers a range of dishes at reasonable prices. The restaurant has received positive reviews for its friendly servers and cozy ambiance.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Othmane Ibn Affane is a bus stop located in Ariana, Tunisia, at coordinates (36.8445844, 10.1666019). This bus stop offers transportation services to the local community.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3373,14 +4874,73 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Echemi Ennasr located at Echemi Ennasr, Residence Ettaoufik, 2 Av. Hedi Nouira, Ariana 2037. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 36.864739580827, 10.167664519529. For more details, call them at 25 567 389.</t>
+          <t>Echemi Ennasr, located in the bustling city of Ariana, offers a delectable dining experience in a friendly and welcoming atmosphere. This reputed restaurant has earned a remarkable 4.0 rating based on the reviews of 152 satisfied customers.
+One of Echemi Ennasr's notable features is its extensive menu, which includes a wide variety of dishes to cater to diverse tastes. It is particularly renowned for its sandwiches, pizzas, and escalopes. The restaurant takes pride in using only the finest ingredients, ensuring freshness and impeccable quality with every dish.
+Situated at coordinates (36.864739580827, 10.167664519529), Echemi Ennasr is conveniently located in the Residence Ettaoufik, 2 Av. Hedi Nouira, making it easily accessible to both locals and visitors. Whether you're seeking a quick bite or a leisurely dining experience, Echemi Ennasr is an excellent choice.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant destination in Ariana, perfect for restaurant lovers and featuring a range of culinary options?</t>
+          <t>Day Plan:
+Morning: Explore the iconic landmark "Roundabout Menzah 6" for an introduction to Ariana's cultural heritage.
+Mid-Morning: Visit the museum "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" to delve into the region's rich history.
+Midday: Savor the delicious flavors of Tunisian cuisine at "Restaurant Thailandais Thai House Ariana" for an authentic dining experience.
+Afternoon: Engage in recreational activities at "Sebkha Ariana," a scenic seasonal lake perfect for relaxing strolls, cycling, or picnics.
+Evening: Experience the vibrant nightlife at "EL BAAZZZ," a popular discotheque known for its lively atmosphere.
+Night: End the day with a relaxing visit to "LE SANCTUAIRE," a charming bar lounge offering a cozy and sophisticated ambiance.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Piacere is a charming restaurant nestled in the heart of Ariana. Boasting a 4.5-star rating, it offers a delicious and varied menu with options like pizza, pasta, and chicken. Customers rave about the warm and inviting ambiance, friendly staff, and reasonable prices. Located at the Residence la Princesse on Avenue Hedi Nouira, Piacere is open daily from noon to 11 pm, providing a delightful dining experience for both locals and visitors alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Safsaf is a bus stop in Ariana, Tunisia, located at (36.858072087073, 10.191454200752).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3490,12 +5050,71 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in Ariana and up for some Italian food, La Tavolata is a top choice at Av. Hedi Nouira, V556+9JV. This 4-star restaurant is highly recommended with 140 reviews, and serves a range of food options. It's open from 12:00-23:00 during the week. You can call them at 71 829 202 or check out their website at https://m.facebook.com/latavolata.ristorante/ for more details.</t>
+          <t>La Tavolata is a restaurant located in Ariana, Tunisia. It offers a variety of dishes, including pizza, pasta, and seafood. The restaurant is open daily from 12:00pm to 11:00pm and is located at V556+9JV La Tavolata, Av. Hedi Nouira, Ariana.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly recommended 4-star Italian restaurant with a convenient location and extended hours?</t>
+          <t>Day Plan:
+Morning: Exploring "The Penthouse"
+Mid-Morning: Trying local cuisine at Mr. Meat
+Midday: Visiting Roundabout Menzah 6
+Afternoon: Relaxing with a massage at "The Penthouse"
+Evening: Enjoying scenic views at Sebkha Ariana
+Night: Participating in a dance party at EL BAAZZZ</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Fairouz Lebanese Restaurant is a restaurant located in Ariana, Tunisia. It is highly rated for its delicious Lebanese cuisine, with many positive reviews praising its falafels, sandwiches, and overall quality. The restaurant is open from 12:00 to 23:00 every day except Sunday and is located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Terminus 635 is a bus stop located in Ariana, Tunisia. It has a rating of 3.3 out of 5 stars on Google Maps, based on 7 reviews. The bus stop is located at coordinates (36.860202, 10.1905046).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3605,12 +5224,73 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Mr meat located at 5 Av. de la liberte, Ariana. This top-rated destination is perfect for Restaurant americain lovers. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 36.849650818319, 10.174906593829. For more details, visit their website at https://m.facebook.com/profile.php%3Fid%3D100369788006725%26ref%3Dcontent_filter or call them at 22 563 680.</t>
+          <t>Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where is the top-rated Restaurant americain destination with a 4.2 rating located in Ariana?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Sebkha Ariana, a seasonal lake known for its natural beauty and tranquil atmosphere.
+Mid-Morning: Immerse yourself in the local culture by visiting Echemi Ennasr, a renowned restaurant serving delectable sandwiches, pizzas, and escalopes.
+Midday: Indulge in authentic Thai cuisine at Restaurant Thailandais Thai House Ariana, highly rated for its fresh ingredients and flavorful dishes.
+Afternoon: Explore the lively "aychik homestay," a hostel offering a 24-hour reception and a warm and welcoming atmosphere.
+Evening: Enjoy the vibrant atmosphere of EL BAAZZZ, a discotheque with a 5.0 rating, offering a lively ambiance and a perfect place to dance the night away.
+Night: Unwind and relax at LE SANCTUAIRE, a 24-hour bar with a 5-star rating, providing a sophisticated and comfortable setting to end the day.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Echemi Ennasr, located in the bustling city of Ariana, offers a delectable dining experience in a friendly and welcoming atmosphere. This reputed restaurant has earned a remarkable 4.0 rating based on the reviews of 152 satisfied customers.
+One of Echemi Ennasr's notable features is its extensive menu, which includes a wide variety of dishes to cater to diverse tastes. It is particularly renowned for its sandwiches, pizzas, and escalopes. The restaurant takes pride in using only the finest ingredients, ensuring freshness and impeccable quality with every dish.
+Situated at coordinates (36.864739580827, 10.167664519529), Echemi Ennasr is conveniently located in the Residence Ettaoufik, 2 Av. Hedi Nouira, making it easily accessible to both locals and visitors. Whether you're seeking a quick bite or a leisurely dining experience, Echemi Ennasr is an excellent choice.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3716,14 +5396,71 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Hamburgasm located at Av. Mustapha Hjeij, Ariana. 
-This top-rated destination is perfect for Restaurant de hamburgers lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-01:00, but closed on to get there, use these GPS coordinates: 36.858345081176, 10.185226830163. For more details, visit their website at https://www.instagram.com/hamburgasme_officiel_%3Figshid%3DMzMyNGUyNmU2YQ%3D%3D.</t>
+          <t>Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly rated Restaurant de hamburgers destination called Hamburgasm?</t>
+          <t>Day Plan:
+Morning: Explore The Penthouse and enjoy its luxurious amenities.
+Mid-Morning: Visit "aychik homestay" to experience local hospitality and learn about the neighborhood.
+Midday: Try local cuisine at Picanha Grill, known for its grilled steak and high ratings.
+Afternoon: Visit the museum "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" for a captivating cultural experience.
+Evening: Enjoy scenic views at Sebkha Ariana, a beautiful seasonal lake perfect for relaxation or exploration.
+Night: Experience the vibrant nightlife at EL BAAZZZ, a discotheque with excellent ratings for its ambiance and music.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 7 is an Ariana bus stop located at coordinates (36.8521303, 10.158535) with 3 Google reviews and a rating of 3.7 out of 5.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3829,12 +5566,71 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated Restaurant thai destination, check out Restaurant Thailandais Thai House Ariana. With a rating of 4.5, it's a must-visit spot for {main_category} lovers. It's open during these hours: 12:00-22:00, but closed on {closed_on}. To get there, use these GPS coordinates: 36.8517738, 10.1809026. For more details, visit their website {website} or call them at 71 716 625.</t>
+          <t>Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find Restaurant Thailandais Thai House Ariana, a highly-rated Thai restaurant with a rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Explore The Penthouse's luxurious accommodations and amenities.
+Mid-Morning: Try local cuisine at Mr Meat, an American restaurant serving a variety of dishes.
+Midday: Visit Poissonnerie VICINO AL MARE, a fish market offering a wide variety of fresh fish and seafood.
+Afternoon: Enjoy a relaxing afternoon at Sebkha Ariana, a seasonal lake with a beautiful natural setting.
+Evening: Participate in a guided tour of jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, a highly-rated museum showcasing the region's history and heritage.
+Night: Experience the vibrant nightlife at EL BAAZZZ, a discotheque with a 5.0 rating and energetic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Twins Garden is a restaurant located in Ariana, Tunisia, known for its pizzas. It is open from 6:30 am to midnight, and offers a range of dishes at reasonable prices. The restaurant has received positive reviews for its friendly servers and cozy ambiance.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3940,14 +5736,73 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Pizza Town located at 19 Av. de la democratie, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-23:30, but closed on []. To get there, use these GPS coordinates: 36.846808892138, 10.174639714032. For more details, visit their website or call them at 71 231 222.</t>
+          <t>**Pizza Town**
+Nestled amidst the bustling streets of Ariana, Pizza Town offers a tantalizing culinary experience with its mouthwatering pizzas. Located conveniently at (36.846808892138, 10.174639714032), the restaurant is open daily from 11:30 am to 11:30 pm, except on public holidays. With its cozy ambiance and impeccable service, Pizza Town has earned a solid 4.0 rating among patrons.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Question: Where can I find a renowned restaurant with high ratings in Ariana for a memorable dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ariana metro station and learn about the city's rich transportation history.
+Mid-Morning: Visit the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana museum to delve into the region's cultural heritage.
+Midday: Savor the authentic flavors of Tunisian cuisine at the highly-rated Rozana Kebab restaurant, known for its delicious chawarmas.
+Afternoon: Engage in outdoor activities at the scenic Sebkha Ariana lake, where you can enjoy a relaxing walk, bike ride, or picnic amidst its natural beauty.
+Evening: Shop for local souvenirs and explore the vibrant stalls at the Poissonnerie VICINO AL MARE fish market.
+Night: Experience the lively atmosphere of EL BAAZZZ discotheque, where you can dance and enjoy the energetic nightlife of Ariana.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Located in the city of Ariana (Tunisia), L'authentique is a restaurant that offers a 24/7 service, except on Sundays. 
+With a 5.0-star rating based on 2 reviews, it's a highly rated spot among customers.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4049,14 +5904,71 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Twins Garden located at Twins Garden, 36 Rue De L'ere Nouvelle 2, Cite Ennasr 2, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on . To get there, use these GPS coordinates: 36.861291689268, 10.154350395386. For more details, visit their link at https://www.google.com/maps/place/Twins+Garden/data=!4m7!3m6!1s0x12fd33bf8dd28193:0x2203dafa8779c1a6!8m2!3d36.8613315!4d10.1543418!16s%2Fg%2F11rfhdny2z!19sChIJk4HSjb8z_RIRpsF5h_raAyI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Twins Garden is a restaurant located in Ariana, Tunisia, known for its pizzas. It is open from 6:30 am to midnight, and offers a range of dishes at reasonable prices. The restaurant has received positive reviews for its friendly servers and cozy ambiance.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining destination with a wide selection of restaurants in Ariana that stays open until midnight?</t>
+          <t>**Day Plan:**
+**Morning:** Visit the Ariana Mosque, an architectural marvel known for its striking minaret.
+**Mid-Morning:** Explore the Sebkha Ariana, a tranquil seasonal lake offering serene surroundings and opportunities for birdwatching and relaxation.
+**Midday:** Try local cuisine at Mustache, a highly-rated restaurant serving delicious pizzas, burgers, and more.
+**Afternoon:** Visit the Rosmarino pizzeria for a taste of authentic Italian cuisine and soak in the inviting atmosphere.
+**Evening:** Head to EL BAAZZZ discotheque, a lively spot with a positive ambiance, for an unforgettable night out.
+**Night:** Relax and rejuvenate with a pampering spa experience at the 5-star Hotel Ennasr, ensuring a peaceful end to an eventful day.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Mustache is a highly-rated restaurant located at 5 Rue Ahmed Tlili, Ariana 2091, Tunisia. It serves a variety of dishes including pizzas, burgers, sandwiches, and pastas. The restaurant is open from 11:30 AM to midnight, and is closed on Mondays. Mustache has received over 75 reviews on Google Maps, with an average rating of 4.5 out of 5. Reviewers have praised the restaurant's delicious food, friendly service, and reasonable prices.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Located in Ariana, the Ennasr 1 Bus Stop is a highly-rated transportation hub with a 4.8-star rating. It's conveniently situated on Av. de l'Ere Nouvelle, making it easily accessible for commuters.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4162,12 +6074,71 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a top-rated restaurant, check out Mustache located at 5 Rue Ahmed Tlili, Ariana 2091. This must-visit spot is perfect for Restaurant lovers and has a rating of 4.5. It's open from 11:30-00:00 and closed on . To get there, use these GPS coordinates: 36.844540707229, 10.174332601099. For more details, visit their website at  or call them at 55 553 007.</t>
+          <t>Mustache is a highly-rated restaurant located at 5 Rue Ahmed Tlili, Ariana 2091, Tunisia. It serves a variety of dishes including pizzas, burgers, sandwiches, and pastas. The restaurant is open from 11:30 AM to midnight, and is closed on Mondays. Mustache has received over 75 reviews on Google Maps, with an average rating of 4.5 out of 5. Reviewers have praised the restaurant's delicious food, friendly service, and reasonable prices.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>For a top-rated dining experience in Ariana, where can you find 'Mustache', known for its high ratings and specialized cuisine?</t>
+          <t>Day Plan:
+Morning: Exploring The Hotel Ennasr
+Mid-Morning: Trying local cuisine at Mr Meat
+Midday: Visiting Roundabout Menzah 6
+Afternoon: Enjoying scenic views at Sebkha Ariana
+Evening: Participating in an event/activity at EL BAAZZZ
+Night: Relaxing with a massage at LE SANCTUAIRE</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+La Tavolata is a restaurant located in Ariana, Tunisia. It offers a variety of dishes, including pizza, pasta, and seafood. The restaurant is open daily from 12:00pm to 11:00pm and is located at V556+9JV La Tavolata, Av. Hedi Nouira, Ariana.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4277,12 +6248,77 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Piacere located at Piacere, Residence la princesse, 117 Av. Hedi Nouira, Ariana 2037. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on None. To get there, use these GPS coordinates: 36.867021097274, 10.170660992232. For more details, visit their website at https://www.facebook.com/piacere.tn/ or call them at 24 706 706.</t>
+          <t>Piacere is a charming restaurant nestled in the heart of Ariana. Boasting a 4.5-star rating, it offers a delicious and varied menu with options like pizza, pasta, and chicken. Customers rave about the warm and inviting ambiance, friendly staff, and reasonable prices. Located at the Residence la Princesse on Avenue Hedi Nouira, Piacere is open daily from noon to 11 pm, providing a delightful dining experience for both locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated restaurant named Piacere with a wide selection of dining options?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the rich history at **Association issaweyet ariana**, a captivating museum showcasing Ariana's cultural heritage.
+**Mid-Morning:**
+- Indulge in a traditional Tunisian breakfast at **mT`m SlyH Restaurant Salih**, known for its mouthwatering cuisine.
+**Midday:**
+- Immerse yourself in the beauty of **Rosmarino**, a popular pizzeria renowned for its authentic Italian flavors.
+**Afternoon:**
+- Enjoy a scenic walk around **Sebkha Ariana**, a tranquil seasonal lake offering breathtaking views and opportunities for relaxation.
+**Evening:**
+- Visit **La Coupole**, a charming cafe serving delectable treats and cafe au lait.
+**Night:**
+- Experience the vibrant atmosphere of **EL BAAZZZ discotheque**, a lively nightlife spot for dancing and entertainment.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 6 Bus Stop is located in Ariana, Tunisia, at the coordinates (36.85539711586, 10.176995196462). It has a 4.0 rating based on 3 reviews. The bus stop is located in El Menzah 6, on Rue Mouawiya Ibn Abi Sofiene.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4388,12 +6424,71 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in ariana, Fairouz Lebanese Restaurant is a must-visit spot for Restaurant lovers. Located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili, Ariana, this top-rated destination offers a range of Restaurant options to choose from, earning a rating of 4.0. It's open during these hours: 12:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 36.8440227, 10.1715961.</t>
+          <t>Fairouz Lebanese Restaurant is a restaurant located in Ariana, Tunisia. It is highly rated for its delicious Lebanese cuisine, with many positive reviews praising its falafels, sandwiches, and overall quality. The restaurant is open from 12:00 to 23:00 every day except Sunday and is located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Ariana is the highly-rated Fairouz Lebanese Restaurant located, offering a diverse selection of dishes within its operating hours?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant souks and markets of Ariana, where you can discover unique artifacts, handmade crafts, and local delicacies.
+Mid-Morning: Visit the Ariana Mosque, a magnificent architectural masterpiece that showcases the rich Islamic heritage of the city. Take some time to admire its intricate details and serene ambiance.
+Midday: Savory your taste buds with authentic Tunisian cuisine at "aychik homestay." Indulge in traditional dishes like couscous, tajine, or shakshuka, paired with refreshing mint tea.
+Afternoon: Immerse yourself in nature at Sebkha Ariana, a tranquil seasonal lake that offers a serene setting for a picnic or a leisurely stroll. Embrace the tranquility as you soak in the beauty of the surrounding flora and fauna.
+Evening: Enhance your cultural understanding by visiting the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, where you can engage with the local community and learn about the unique traditions and cultural practices of Ariana.
+Night: Experience the lively nightlife scene at EL BAAZZZ discotheque. Dance the night away, immersed in the energetic and vibrant atmosphere as you enjoy the latest tunes.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant les dents de la mer is a restaurant specializing in seafood located in Ariana (lon : 7.2731809, lat : 43.6956481). It has 38 reviews on google map with an average note of 3.5 / 5. According to the reviews, the prices are affordable and the seafood is of good quality.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Terminus 635 is a bus stop located in Ariana, Tunisia. It has a rating of 3.3 out of 5 stars on Google Maps, based on 7 reviews. The bus stop is located at coordinates (36.860202, 10.1905046).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4499,14 +6594,71 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a quick bite to eat, check out Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; located at V56J+35C Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. 
-This top-rated destination is perfect for fast food lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on Monday. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, call them at 21 210 859.</t>
+          <t>Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated fast food restaurant in Ariana that is known for its quick bites to eat and operates with extended hours, except on Mondays?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana metro station and learn about the city's transportation system.
+Mid-Morning: Visit the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana museum to appreciate the rich history and culture of Ariana.
+Midday: Head to Restaurant Thailandais Thai House Ariana for an authentic Thai dining experience.
+Afternoon: Shop for souvenirs and local crafts at Poissonnerie VICINO AL MARE.
+Evening: Experience a vibrant nightlife at EL BAAZZZ discotheque, known for its energetic atmosphere and top DJs.
+Night: Relax and rejuvenate with a spa treatment at the Hotel Ennasr, a luxurious five-star hotel offering a range of wellness services.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The Carnoy Bus Stop is located in Ariana, Tunisia, at the coordinates (36.8445284, 10.1745315). It offers public transportation services and is easily accessible by bus. The stop boasts a rating of 4.0 from 4 reviews and is categorized as an "Arret de bus". Currently, there is no available information regarding its website, owner, workday timing, or hours of operation.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4612,14 +6764,71 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Picanha Grill located at V578+CMM Picanha Grill, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website or call them at 70 031 607.</t>
+          <t>Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly acclaimed restaurant (rated 4.5) that specializes in Restaurant options and operates from 9 am to midnight?</t>
+          <t>Day Plan:
+Morning: Explore the historic Roundabout Menzah 6 monument and take a guided tour of the captivating Association issaweyet ariana museum.
+Mid-Morning: Immerse yourself in culture by visiting the Sebkha Ariana seasonal lake for a serene stroll or bike ride.
+Midday: Savor the authentic flavors of Tunisian cuisine at mT`m SlyH Restaurant Salih, renowned for its delicious traditional dishes.
+Afternoon: Indulge in retail therapy at the Ariana Mall, where you can find a wide range of shops and boutiques.
+Evening: Experience the vibrant nightlife of Ariana at EL BAAZZZ discotheque, known for its lively atmosphere and excellent music.
+Night: Unwind and relax at LE SANCTUAIRE, a 5-star bar lounge offering a sophisticated ambiance and refreshing cocktails.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant les dents de la mer is a seafood restaurant located in Ariana, Tunisia. It is rated 3.5 out of 5 stars on Google and has 38 reviews. The restaurant offers a variety of seafood dishes, including fish, shrimp, and calamari. It is also known for its affordable prices. The restaurant is located at V53F+MCH Restaurant les dents de la mer, Ariana, and is open daily from 11:00 am to 11:00 pm.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4729,14 +6938,77 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a family-friendly restaurant, check out Ninos located at V46W+2W4 Ninos, Ariana. 
-This top-rated destination is perfect for Restaurant familial lovers and offers a range of options to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-21:00, but closed on ['mardi']. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Ariana can families find a highly rated restaurant with a welcoming ambience and a diverse menu?</t>
+          <t>Day Plan:
+Morning: **Exploring The Penthouse**
+- Start the day by exploring The Penthouse, a luxurious apart-hotel with a skating rink, bowling alley, and swimming pool.
+Mid-Morning: **Trying local cuisine at InstaPasta**
+- Take a short drive to InstaPasta, a popular restaurant offering a wide variety of affordable pasta dishes.
+Midday: **Visiting Roundabout Menzah 6**
+- Visit Roundabout Menzah 6, a monument that represents Ariana's rich cultural heritage.
+Afternoon: **Relaxing with a massage at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana**
+- Pamper yourself with a rejuvenating massage at Association issaweyet ariana, a museum that offers both cultural insights and relaxation.
+Evening: **Enjoying a cultural immersion at Poissonnerie VICINO AL MARE**
+- Explore Poissonnerie VICINO AL MARE, a fish market that displays a vibrant array of fresh seafood.
+Night: **Experiencing a vibrant nightlife at EL BAAZZZ**
+- End the day with a lively evening at EL BAAZZZ, a discotheque known for its energetic atmosphere and exciting music.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+InstaPasta is a popular restaurant located in Ariana,Tunisia. The restaurant has a rating of 4.5 and offers a wide variety of dishes at affordable prices. Some of the most popular dishes include sandwiches, pizzas, and pasta. The restaurant also offers a delivery service. InstaPasta is located on 19 Rue Mouawiya Ibn Abi Sofiene, and is open from 11:00am to 11:00pm.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 7 is an Ariana bus stop located at coordinates (36.8521303, 10.158535) with 3 Google reviews and a rating of 3.7 out of 5.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4846,12 +7118,71 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out InstaPasta located at 19 Rue Mouawiya Ibn Abi Sofiene, Ariana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.854588681299, 10.174919585779. For more details, visit their website at https://m.facebook.com/InstaPasta-1135239089984622/%3Ftsid%3D0.2812466684432393%26source%3Dresult or call them at 25 404 024.</t>
+          <t>InstaPasta is a popular restaurant located in Ariana,Tunisia. The restaurant has a rating of 4.5 and offers a wide variety of dishes at affordable prices. Some of the most popular dishes include sandwiches, pizzas, and pasta. The restaurant also offers a delivery service. InstaPasta is located on 19 Rue Mouawiya Ibn Abi Sofiene, and is open from 11:00am to 11:00pm.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What is the address of the top-rated restaurant destination for restaurant lovers in Ariana, which boasts a 4.5 rating and is open from 11:00-23:00?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the historic Roundabout Menzah 6 monument, immersing yourself in the rich history of Ariana.
+Mid-Morning: Explore the fascinating "jm'yW@ `yswyW@ 'ryn@ Association issaweyet ariana" museum, showcasing the captivating cultural heritage of the region.
+Midday: Treat your palate to the authentic flavors of Tunisian cuisine at the highly-rated mT`m SlyH Restaurant Salih, delighting in traditional dishes and warm hospitality.
+Afternoon: Stroll along the scenic shores of Sebkha Ariana, embracing the tranquility and beauty of the seasonal lake. Indulge in a picnic while basking in nature's embrace.
+Evening: Experience the vibrant dining scene at Hamburgasm, savoring their delectable burgers and relishing the lively ambiance.
+Night: Dance the night away at EL BAAZZZ, a renowned discotheque in Ariana, grooving to energetic beats and immersing yourself in the city's vibrant nightlife.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 8 Bus Stop is a highly rated bus stop located at Av. Othman Ibn Affane in Ariana, Tunisia. It has received an average rating of 4.4 out of 5 based on 5 reviews, indicating customer satisfaction with the services provided.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4961,12 +7292,71 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Looking for a great place to eat in Ariana? Check out Rozana Kebab located at 7 Av. Jallouli Fares, Ariana 2037. This top-rated restaurant is perfect for lovers of Syrian cuisine and offers a range of dishes to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 36.860320017142, 10.16760101084. For more details, visit their website at http://www.facebook.com/rozana.kebab or call them at 27 822 122.</t>
+          <t>Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Syrian restaurant with a rating of 4.3 located at 7 Av. Jallouli Fares, Ariana 2037?</t>
+          <t>Day Plan:
+Morning: Explore Poissonnerie VICINO AL MARE, a bustling fish market with a wide selection of fresh seafood.
+Mid-Morning: Visit the Roundabout Menzah 6 monument for a scenic view of the city.
+Midday: Savor a delightful lunch at Restaurant Thailandais Thai House Ariana, known for its authentic Thai cuisine and welcoming atmosphere.
+Afternoon: Take a stroll through Sebkha Ariana, a serene seasonal lake, and enjoy the tranquility of nature.
+Evening: Enhance your cultural understanding at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, a highly-rated museum showcasing the region's rich heritage.
+Night: Indulge in the lively ambiance at EL BAAZZZ discotheque, open until 5 AM, and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant bocca beach is a restaurant located in Sousse, Tunisia, offering a variety of dishes, including pizzas. It is located at 35.8293001 latitude and 10.6406309 longitude, and is open from 11:00 to 01:00 every day of the week.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 6 is a bus stop located at El Menzah 6 (5C, 5D), Rue Mouawiya Ibn Abi Sofiene, Ariana. It is rated 5.0 and has 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5072,14 +7462,77 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out La Coupole located at 92, La Coupole, 2 Av. Hedi Nouira, Ariana 2037. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Cafe a emporter, Creperie, Salon de the to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on none. To get there, use these GPS coordinates: 36.861964881822, 10.165000776837. For more details, visit their website or call them at 25 176 985.</t>
+          <t>La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find La Coupole, a highly-rated destination featuring a range of culinary options and a 4.0-star rating?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring the scenic Sebkha Ariana for a relaxing walk or bike ride.
+**Mid-Morning:**
+- Guided tour of the historic Roundabout Menzah 6 monument to learn about its significance.
+**Midday:**
+- Trying local cuisine at Restaurant Thailandais Thai House Ariana for an authentic Thai meal.
+**Afternoon:**
+- Enjoying a thrilling skating session or bowling match at The Penthouse.
+**Evening:**
+- Shopping for souvenirs at the vibrant Ariana Mall.
+**Night:**
+- Relaxing and enjoying live music at LE SANCTUAIRE, a highly-rated bar lounge in Ariana.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Fairouz Lebanese Restaurant is a restaurant located in Ariana, Tunisia. It is highly rated for its delicious Lebanese cuisine, with many positive reviews praising its falafels, sandwiches, and overall quality. The restaurant is open from 12:00 to 23:00 every day except Sunday and is located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+In the city of Ariana, Terminus 6P is a bus stop situated at the coordinates (36.860202, 10.1905046). With a rating of 3.3, it has garnered mixed reviews from users.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5185,14 +7638,71 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Restaurant Chabrouch located at V578+CMJ Restaurant Chabrouch, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.8638624, 10.1665063. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chabrouch/data=!4m7!3m6!1s0x12e2cd7b35f917bb:0x2f6b567d22fb0c91!8m2!3d36.8635897!4d10.166653!16s%2Fg%2F11gntvgfqz!19sChIJuxf5NXvN4hIRkQz7In1Way8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 957 505.</t>
+          <t>**Restaurant Chabrouch** is a highly-rated restaurant boasting 36 reviews and a rating of 4.2. It is located in ariana, making it convenient for locals and tourists alike. The restaurant's weekday timing is from 11:00-23:00, and it is known for its cuisine tunisienne. With its convenient location, excellent reviews, and delectable cuisine, Restaurant Chabrouch is a must-visit for anyone seeking an authentic Tunisian dining experience.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find Restaurant Chabrouch, a top-rated destination with a 4.2 rating and a wide selection of restaurants?</t>
+          <t>Day Plan:
+Morning: Explore the Sebkha Ariana, a beautiful seasonal lake offering a serene ambiance.
+Mid-Morning: Visit the Association issaweyet ariana museum to delve into the cultural heritage and history of Ariana.
+Midday: Savor local cuisine at "aychik homestay," known for its delicious and home-style Tunisian dishes.
+Afternoon: Immerse in the bustling atmosphere of the Roundabout Menzah 6, a prominent landmark in Ariana.
+Evening: Relax with a delightful dinner at Piacere, a charming restaurant offering authentic Italian flavors.
+Night: Experience the vibrant nightlife at EL BAAZZZ discotheque, a popular entertainment venue in Ariana.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Piacere is a charming restaurant nestled in the heart of Ariana. Boasting a 4.5-star rating, it offers a delicious and varied menu with options like pizza, pasta, and chicken. Customers rave about the warm and inviting ambiance, friendly staff, and reasonable prices. Located at the Residence la Princesse on Avenue Hedi Nouira, Piacere is open daily from noon to 11 pm, providing a delightful dining experience for both locals and visitors alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 7 (47, 5C, 5D) is a bus stop located in Ariana, Tunisia, at the coordinates (36.855111625206, 10.176651154696). It offers a convenient transportation option for residents and visitors of the area.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5298,12 +7808,71 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Rosmarino located at 6 Rue Medinat El Oubeila, Ariana 2080. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.886556212272, 10.188784594735. For more details, visit their website at https://www.google.com/maps/place/Rosmarino/data=!4m7!3m6!1s0x12e2cdcdd75518ad:0x2ba54aa045cb78db!8m2!3d36.8659967!4d10.1618932!16s%2Fg%2F11llyk7t37!19sChIJrRhV183N4hIR23jLRaBKpSs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 091 909.</t>
+          <t>Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Pizzeria destination (with a rating of 4.7) in Ariana, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the fascinating Sebkha Ariana, a seasonal lake offering a tranquil setting for nature enthusiasts.
+Mid-Morning: Immerse yourself in the local culinary scene at Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, a popular fast food restaurant serving delectable chapatis and Middle Eastern dishes.
+Midday: Visit the iconic Roundabout Menzah 6, a prominent monument in Ariana.
+Afternoon: Engage in some shopping therapy at Ariana Mall, a vibrant shopping destination offering a wide range of retail options.
+Evening: Savor authentic Italian flavors at Rosmarino, a reputable pizzeria renowned for its traditional cuisine and welcoming atmosphere.
+Night: Wind down the evening at La Coupole, a charming cafe ideal for relaxing with a cup of cafe au lait or indulging in delectable crepes.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant bocca beach is a restaurant located in Sousse, Tunisia, offering a variety of dishes, including pizzas. It is located at 35.8293001 latitude and 10.6406309 longitude, and is open from 11:00 to 01:00 every day of the week.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+5D TCV(Tunis) is a bus stop located in Ariana, Tunisia. It offers a convenient spot for travelers to board or disembark buses for their transportation needs. The bus stop is situated on Rue Hassen Ibn Thabet, providing easy access to the surrounding areas. With its prime location and reliable transportation options, 5D TCV(Tunis) plays a crucial role in the public transportation network of Ariana.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5409,12 +7978,71 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Chez Mamino located at V53J+253 Chez Mamino, Rue Kehna, Ariana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on none. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at https://www.google.com/maps/place/Chez+Mamino/data=!4m7!3m6!1s0x12fd34ae39feebbb:0xa6500470fcb81653!8m2!3d36.8525182!4d10.1804334!16s%2Fg%2F11c706p0n3!19sChIJu-v-Oa40_RIRUxa4_HAEUKY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 444 113.</t>
+          <t>Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find the highly-rated Chez Mamino, a must-visit spot for Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the Ariana Mosque, one of the most important historical sites in Ariana.
+Mid-Morning: Visit the "aychik homestay" hostel for a local experience and learn about the culture of Ariana.
+Midday: Try local cuisine at Picanha Grill for a delightful dining experience.
+Afternoon: Engage in outdoor activities like biking or walking at Sebkha Ariana and enjoy its scenic setting.
+Evening: Enjoy a relaxing massage at the Spa located in Hotel Ennasr for some rejuvenation.
+Night: Experience the vibrant nightlife at EL BAAZZZ discotheque and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5520,12 +8148,79 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great Restaurant, check out UMAMI located at Residence Nour El, Residence Houda, 5 Av. Hedi Nouira, Ariana 2001. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.86778670031, 10.171402120111. For more details, visit their website or call them at 53 766 145.</t>
+          <t>UMAMI is a restaurant located in Ariana, Tunisia, offering a variety of dishes. The restaurant is open from 12:00 pm to 00:00 am during the week, and is closed on Sundays. The restaurant has a rating of 4.0 out of 5 stars, and offers a variety of categories such as Restaurant. The restaurant is located at UMAMI, Residence Nour El, Residence Houda, 5 Av. Hedi Nouira, Ariana 2001, and can be contacted at 53 766 145.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated Restaurant called UMAMI, known for its top-notch cuisine and open during late hours?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring The Penthouse: Kick off the day with a visit to The Penthouse, an aparthotel with luxury accommodations and an array of entertainment options. Enjoy the skating rink, bowling alley, or take a dip in the seasonal swimming pool.
+**Mid-Morning:**
+- Trying local cuisine at Echemi Ennasr: Experience the culinary delights of Ariana at Echemi Ennasr. Savor delectable sandwiches, pizzas, and escalopes while soaking up the friendly atmosphere.
+**Midday:**
+- Visiting Sebkha Ariana: Escape the hustle and bustle at Sebkha Ariana, a scenic seasonal lake. Take a leisurely stroll amidst lush vegetation, enjoy a bike ride, or pack a picnic for a relaxing afternoon.
+**Afternoon:**
+- Enjoying recreational activities at Parc d'El Menzah: Head to Parc d'El Menzah for a refreshing break. Engage in outdoor activities, admire the beautiful gardens, or simply relax and soak up the tranquil ambiance.
+**Evening:**
+- Exploring cultural immersion at the Ariana Museum: Delve into the rich history and culture of Ariana at the Ariana Museum. Discover fascinating exhibits that showcase the city's heritage and artistic traditions.
+**Night:**
+- Experiencing scenic views at Roundabout Menzah 6: As the sun sets, make your way to Roundabout Menzah 6. Admire the impressive monument and capture panoramic views of the city lights.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Echemi Ennasr, located in the bustling city of Ariana, offers a delectable dining experience in a friendly and welcoming atmosphere. This reputed restaurant has earned a remarkable 4.0 rating based on the reviews of 152 satisfied customers.
+One of Echemi Ennasr's notable features is its extensive menu, which includes a wide variety of dishes to cater to diverse tastes. It is particularly renowned for its sandwiches, pizzas, and escalopes. The restaurant takes pride in using only the finest ingredients, ensuring freshness and impeccable quality with every dish.
+Situated at coordinates (36.864739580827, 10.167664519529), Echemi Ennasr is conveniently located in the Residence Ettaoufik, 2 Av. Hedi Nouira, making it easily accessible to both locals and visitors. Whether you're seeking a quick bite or a leisurely dining experience, Echemi Ennasr is an excellent choice.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Located in Ariana, the Ennasr 1 Bus Stop is a highly-rated transportation hub with a 4.8-star rating. It's conveniently situated on Av. de l'Ere Nouvelle, making it easily accessible for commuters.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5631,14 +8326,71 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out mT`m SlyH Restaurant Salih located at 31 Av. Habib Bourguiba, Ariana 2080. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:30-22:00. To get there, use these GPS coordinates: 36.889676082362, 10.175152602687. For more details, visit their website at https://www.instagram.com/restosalih/.</t>
+          <t>mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>What is the top-rated Restaurant tunisien restaurant in Ariana, known for its wide selection of dishes and convenient location at 31 Av. Habib Bourguiba, Ariana 2080?</t>
+          <t>Day Plan:
+Morning: Explore the cultural heritage of Ariana by visiting the highly-rated Association issaweyet ariana museum.
+Mid-Morning: Indulge in local cuisine at the popular Rozana Kebab restaurant, known for its chawarmas and hamburgers.
+Midday: Take a leisurely walk through the serene Sebkha Ariana lake, surrounded by lush vegetation and wildlife.
+Afternoon: Visit the scenic Rosmarino pizzeria for an authentic Italian culinary experience.
+Evening: Experience the vibrant nightlife at EL BAAZZZ discotheque, renowned for its energetic atmosphere and top DJs.
+Night: Enjoy a relaxing evening at the 5-star LE SANCTUAIRE bar lounge, known for its 24-hour service and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Fairouz Lebanese Restaurant is a restaurant located in Ariana, Tunisia. It is highly rated for its delicious Lebanese cuisine, with many positive reviews praising its falafels, sandwiches, and overall quality. The restaurant is open from 12:00 to 23:00 every day except Sunday and is located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Terminus 635 is a bus stop located in Ariana, Tunisia. It has a rating of 3.3 out of 5 stars on Google Maps, based on 7 reviews. The bus stop is located at coordinates (36.860202, 10.1905046).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5744,16 +8496,72 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated Restaurant, check out L'authentique located at Rue Aziza Othmena, Ariana. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. 
-To get there, use these GPS coordinates: 36.860202, 10.1905046. 
-For more details, visit their website at or call them at 25 642 779.</t>
+          <t>Located in the city of Ariana (Tunisia), L'authentique is a restaurant that offers a 24/7 service, except on Sundays. 
+With a 5.0-star rating based on 2 reviews, it's a highly rated spot among customers.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>If you're in Ariana on the hunt for an exceptional dining experience, what restaurant should you visit that's highly rated and conveniently located?</t>
+          <t>Day Plan:
+Morning: Visit Sebkha Ariana, a beautiful seasonal lake with lush vegetation and wildlife, perfect for a stroll or picnic.
+Mid-Morning: Try local cuisine at Restaurant les dents de la mer, known for its affordable seafood dishes with high-quality ingredients.
+Midday: Explore the "aychik homestay," a conveniently located hostel with private rooms and shared dormitories for relaxation and rest.
+Afternoon: Visit the Association issaweyet ariana, a captivating museum offering a cultural experience with unique exhibits and displays.
+Evening: Enjoy the lively nightlife at EL BAAZZZ discotheque, featuring top DJs, live performances, and an energetic atmosphere.
+Night: Experience scenic views of the city from the 24-hour bar, LE SANCTUAIRE, known for its top-notch ambiance and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant les dents de la mer is a restaurant specializing in seafood located in Ariana (lon : 7.2731809, lat : 43.6956481). It has 38 reviews on google map with an average note of 3.5 / 5. According to the reviews, the prices are affordable and the seafood is of good quality.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+**Ennasr 2** is a bus stop located in Ariana, Tunisia at the coordinates of 36.86474, 10.15374. Ennasr 2 has received an overall rating of 4.0 from 26 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5859,14 +8667,71 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Fairouz Lebanese Restaurant located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 36.8440227, 10.1715961. For more details, visit their website at  or call them at 71 238 590.</t>
+          <t>Fairouz Lebanese Restaurant is a top-rated dining destination in Ariana, Tunisia, renowned for its authentic Lebanese cuisine. Situated at coordinates (36.8440227, 10.1715961), the restaurant offers a delightful fusion of Lebanese flavors. With 66 positive reviews, Fairouz Lebanese Restaurant has earned a 4.0 rating for its delectable dishes, including falafel and sandwiches, at affordable prices. Open daily from 12:00 PM to 11:00 PM, except on Sundays, the restaurant welcomes diners with its warm ambiance and friendly service.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Lebanese restaurant with a diverse menu in Ariana that is perfect for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant local market in Ariana, experiencing the authentic atmosphere and browsing for unique souvenirs.
+Mid-Morning: Visit the intriguing "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" museum, delving into the rich cultural heritage of the city.
+Midday: Indulge in a delightful lunch at "Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;", savoring the flavors of traditional Middle Eastern cuisine.
+Afternoon: Engage in some outdoor recreation at Sebkha Ariana, enjoying a peaceful walk or bike ride amidst the serene natural surroundings.
+Evening: Immerse yourself in the lively ambiance of "EL BAAZZZ" discotheque, dancing the night away and experiencing the energetic nightlife of Ariana.
+Night: Wind down with a relaxing spa treatment at "The Penthouse", rejuvenating both body and mind after a day filled with exploration and activities.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Mustache is a highly-rated restaurant located at 5 Rue Ahmed Tlili, Ariana 2091, Tunisia. It serves a variety of dishes including pizzas, burgers, sandwiches, and pastas. The restaurant is open from 11:30 AM to midnight, and is closed on Mondays. Mustache has received over 75 reviews on Google Maps, with an average rating of 4.5 out of 5. Reviewers have praised the restaurant's delicious food, friendly service, and reasonable prices.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The Carnoy Bus Stop is located in Ariana, Tunisia, at the coordinates (36.8445284, 10.1745315). It offers public transportation services and is easily accessible by bus. The stop boasts a rating of 4.0 from 4 reviews and is categorized as an "Arret de bus". Currently, there is no available information regarding its website, owner, workday timing, or hours of operation.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5968,12 +8833,71 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out street food rades located at 10 Avenue Habib Bourguiba, Ariana. This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.857520909269, 10.188903199348. For more details, visit their website at or call them at 21 082 834.</t>
+          <t>**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly rated street food destination known for its Restaurant de grillades offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana metro station, an important transportation hub in the city.
+Mid-Morning: Visit the Sebkha Ariana, a beautiful and unique seasonal lake, perfect for a morning walk or bike ride.
+Midday: Try local cuisine at Mr. Meat, a well-rated American restaurant known for its burgers and friendly atmosphere.
+Afternoon: Engage in outdoor activities at one of Ariana's many parks, such as the Roundabout Menzah 6 or the Reservoirs Eau Potable.
+Evening: Enjoy scenic views at the "aychik homestay" hostel, which offers a rooftop terrace with panoramic city views.
+Night: Experience cultural immersion at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, a museum that showcases the rich cultural heritage of Ariana.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Fairouz Lebanese Restaurant is a top-rated dining destination in Ariana, Tunisia, renowned for its authentic Lebanese cuisine. Situated at coordinates (36.8440227, 10.1715961), the restaurant offers a delightful fusion of Lebanese flavors. With 66 positive reviews, Fairouz Lebanese Restaurant has earned a 4.0 rating for its delectable dishes, including falafel and sandwiches, at affordable prices. Open daily from 12:00 PM to 11:00 PM, except on Sundays, the restaurant welcomes diners with its warm ambiance and friendly service.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Safsaf is a bus stop in Ariana, Tunisia, located at (36.858072087073, 10.191454200752).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6071,12 +8995,71 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a Service de transport, check out Terminus Ariana located at V55W+VX9 Terminus Ariana, Ariana. This top-rated destination offers a range of Service de transport to choose from. With a rating of 2.9, it's a must-visit spot. It's open during {workday_timing}, but closed on {closed_on}. To get there, use these GPS coordinates: (36.860202, 10.1905046). For more details, visit their website or call them at {phone}.</t>
+          <t>Terminus Ariana is a transportation service located within the Ariana district. It offers a variety of transportation services, with a main focus on metro services. The terminus is situated at the coordinates (36.860202, 10.1905046), making it easily accessible to those in the area. With 96 reviews and a rating of 2.9, Terminus Ariana is a popular choice for transportation services in Ariana.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated Service de transport establishment that stands out as a top destination?</t>
+          <t>Day Plan:
+Morning: Visit the Ariana metro station to witness the bustling atmosphere of the local transportation hub.
+Mid-Morning: Take a guided tour of the "aychik homestay" to learn about the local culture and history.
+Midday: Dine at the highly-rated Chez Mamino, savoring the authentic flavors of Tunisian cuisine.
+Afternoon: Engage in outdoor activities at Sebkha Ariana, enjoying the serene beauty of the seasonal lake and its surrounding nature.
+Evening: Shop for local souvenirs and handicrafts at the vibrant Ariana Mall, immersing yourself in the city's commercial district.
+Night: Experience the lively atmosphere of EL BAAZZZ discotheque, dancing and socializing with locals to end your day on a high note.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The "6B Bus Stop" is located in Ariana, at the coordinates (21.257624, 72.724922). It is a bus stop that serves the 6B bus line. The bus stop is located on a busy street and is easily accessible by foot or by public transportation.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6174,14 +9157,71 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a place to enjoy some time at, check out Ariana located at Ariana. 
-This popular destination is great for Station de metro lovers and offers a range of Station de metro to choose from. 
-With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at https://www.google.com/maps/place/Ariana/data=!4m7!3m6!1s0x12e2cb34bd64ca87:0xcba9f5235ee1ba8b!8m2!3d36.8596907!4d10.1975119!16s%2Fg%2F1tgmmm03!19sChIJh8pkvTTL4hIRi7rhXiP1qcs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a popular destination in Ariana, known for its plentiful Station de metro options and rated 3.4, beckoning Station de metro enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the Ariana metro station, a crucial transportation hub in the city.
+Mid-Morning: Trying local cuisine at Rozana Kebab, known for its delicious chawarmas and hamburgers.
+Midday: Visiting the Fairouz Lebanese Restaurant, highly rated for its delectable Lebanese cuisine and inviting atmosphere.
+Afternoon: Enjoying recreational activities at Sebkha Ariana, a seasonal lake offering a serene natural setting perfect for relaxation and exploration.
+Evening: Participating in an event or activity at EL BAAZZZ, a discotheque known for its lively nightlife experience and energetic atmosphere.
+Night: Relaxing with a luxurious spa treatment at The Penthouse, a friendly aparthotel offering comfortable accommodations and various amenities.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Fairouz Lebanese Restaurant is a restaurant located in Ariana, Tunisia. It is highly rated for its delicious Lebanese cuisine, with many positive reviews praising its falafels, sandwiches, and overall quality. The restaurant is open from 12:00 to 23:00 every day except Sunday and is located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Safsaf is a bus stop in Ariana, Tunisia, located at (36.858072087073, 10.191454200752).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6279,14 +9319,71 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for an Arret de bus, check out Ennasr 2 located at Ennasr 2, Ariana. 
-This top-rated destination has a rating of 4.0 and is a must-visit spot. 
-To get there, use these GPS coordinates: 36.86474, 10.15374.</t>
+          <t>**Ennasr 2** is a bus stop located in Ariana, Tunisia at the coordinates of 36.86474, 10.15374. Ennasr 2 has received an overall rating of 4.0 from 26 reviews.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where is the must-visit Arret de bus in Ariana, known for its top rating and strategic location?</t>
+          <t>Day Plan:
+Morning: Explore The Hotel Ennasr's stylish interior and comfortable guest rooms.
+Mid-Morning: Try local cuisine at Damascino, known for its authentic Syrian and Lebanese flavors.
+Midday: Visit Roundabout Menzah 6, a historical monument with interesting architecture.
+Afternoon: Enjoy scenic views at Sebkha Ariana, a beautiful natural setting perfect for relaxation or exploration.
+Evening: Experience cultural immersion at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, showcasing local traditions.
+Night: Dance the night away at EL BAAZZZ discotheque, known for its lively atmosphere and popular music.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Damascino is a highly-rated restaurant in Ariana, Tunisia, known for its authentic Syrian and Lebanese cuisine. Situated at 38 Rue Mouawiya Ibn Abi Sofiene, it offers a warm and inviting ambiance with a focus on providing a memorable dining experience. Customers rave about the generous portions, fresh ingredients, and exceptional flavors, particularly highlighting the mouthwatering kebabs, salads, and hummus. With its convenient weekday hours of 11:00-00:00 and easy accessibility, Damascino is a popular destination for both locals and visitors seeking a taste of the Middle East in the heart of Ariana.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Safsaf is a bus stop in Ariana, Tunisia, located at (36.858072087073, 10.191454200752).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6384,14 +9481,71 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a reliable transportation service, consider station metro l'independance located at V53W+M8X station metro l'independance, Ariana. 
-This top-rated destination is perfect for those seeking convenient transportation solutions. With a rating of 3.8, it's a must-visit spot. It's open during these hours: not specified, but closed on not specified. 
-For more details, visit their website at not specified or call them at not specified.</t>
+          <t>The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated transportation service in Ariana, which is easily accessible due to its convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana metro station, a transportation hub with a 3.8-star rating and featured image.
+Mid-Morning: Visit "aychik homestay," a hostel with private rooms and shared dormitories where you can rest and prepare for the day's adventures.
+Midday: Try local cuisine at Restaurant Thailandais Thai House Ariana, renowned for its authentic Thai dishes, fresh ingredients, and friendly service.
+Afternoon: Engage in outdoor activities at Sebkha Ariana, a seasonal lake surrounded by lush vegetation and wildlife, offering a beautiful setting for relaxation or exploration.
+Evening: Experience cultural immersion at Association issaweyet ariana, a museum offering a captivating cultural experience and showcasing the rich heritage of Ariana.
+Night: Enjoy scenic views at Roundabout Menzah 6, a monument with the coordinates of (36.8487901, 10.1654024), offering a panoramic vista of the city.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+InstaPasta is a popular restaurant located in Ariana,Tunisia. The restaurant has a rating of 4.5 and offers a wide variety of dishes at affordable prices. Some of the most popular dishes include sandwiches, pizzas, and pasta. The restaurant also offers a delivery service. InstaPasta is located on 19 Rue Mouawiya Ibn Abi Sofiene, and is open from 11:00am to 11:00pm.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The Othmane Ibn Affane is a bus stop located at the following address : Othmane Ibn Affane, Ariana. The bus stop is located at the coordinates (36.839720021055, 10.103797096582).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6485,14 +9639,71 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a bus stop, check out 6B Bus Stop located at 6B Bus Stop, Ariana. 
-This top-rated destination is perfect for bus lovers and offers a range of options to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 21.257624, 72.724922.</t>
+          <t>The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated bus stop with a wide selection of options in Ariana?</t>
+          <t>Day Plan:
+Morning: Exploring "aychik homestay"
+Mid-Morning: Trying local cuisine at Damascino
+Midday: Visiting the Ariana metro station
+Afternoon: Enjoying recreational activities at Sebkha Ariana
+Evening: Relaxing with a spa treatment at **The Penthouse**
+Night: Experiencing cultural immersion at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Damascino is a oriental restaurant located in Ariana, Tunisia (36.854167784031, 10.172850177704). It has received 314 reviews and has a rating of 4.1 out of 5. The restaurant offers a wide variety of oriental dishes, including Syrian and Lebanese cuisine. It is known for its generous portions, high quality ingredients, and friendly service.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The Othmane Ibn Affane is a bus stop located at the following address : Othmane Ibn Affane, Ariana. The bus stop is located at the coordinates (36.839720021055, 10.103797096582).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6590,12 +9801,71 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Terminus Taxi Collectif Ariana Raoued located at Terminus Taxi Collectif Ariana Raoued, Ariana. This top-rated destination is perfect for Arret de bus lovers. With a rating of 2.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.94883, 10.1846799. For more details, visit their link at https://www.google.com/maps/place/Terminus+Taxi+Collectif+Ariana+Raoued/data=!4m7!3m6!1s0x12e2cb4b4dbc6e25:0xe57b04e030b64b72!8m2!3d36.8594846!4d10.187904!16s%2Fg%2F11b6b38g1y!19sChIJJW68TUvL4hIRcku2MOAEe-U?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Terminus Taxi Collectif Ariana Raoued is a bus stop located in Ariana, Tunisia. It offers transportation services to and from Ariana and Raoued, with convenient access for local residents and travelers alike. Its precise geolocation is at longitude 10.1846799 and latitude 36.94883, making it easily accessible within the Ariana region.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>What is the top-rated destination for Arret de bus enthusiasts located in Ariana?</t>
+          <t>Day Plan:
+Morning: Explore the Sebkha Ariana, a seasonal lake offering a natural retreat for relaxation and exploration.
+Mid-Morning: Visit the "aychik homestay" for a budget-friendly stay in the heart of Ariana.
+Midday: Try local cuisine at Restaurant Thailandais Thai House Ariana, known for its authentic Thai flavors and fresh ingredients.
+Afternoon: Shop for souvenirs and local goods at the "Traditional Souq of Ariana," a vibrant marketplace bustling with activity.
+Evening: Embark on a guided tour of "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana," a museum showcasing intriguing cultural artifacts.
+Night: Experience a lively nightlife at EL BAAZZZ, a discotheque known for its energetic atmosphere and top DJs.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+La Tavolata is a restaurant located in Ariana, Tunisia. It offers a variety of dishes, including pizza, pasta, and seafood. The restaurant is open daily from 12:00pm to 11:00pm and is located at V556+9JV La Tavolata, Av. Hedi Nouira, Ariana.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6693,10 +9963,73 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in Ariana and searching for a place to drop anchor, check out 51A. This highly-rated place is located at 51A, Ariana. With a rating of 2.5, it's an essential spot to visit. For more details, visit the place or call them at the provided phone number.</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr"/>
+          <t>The bus stop 51A is located in Ariana, Tunisia, at the coordinates (36.860202, 10.1905046). It has a rating of 2.5 based on 8 reviews.</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore theAriana Mosque, a magnificent architectural marvel reflecting the intricate beauty of Islamic architecture.
+Mid-Morning: Try local cuisine at Restaurant Chabrouch, savoring the authentic flavors of Tunisian cuisine in a highly-rated and well-reviewed setting.
+Midday: Visit the Sebkha Ariana, a captivating seasonal lake offering a serene natural escape amidst lush vegetation and diverse wildlife.
+Afternoon: Engage in outdoor activities at Sebkha Ariana, enjoying a leisurely stroll, a rejuvenating bike ride, or a delightful picnic amidst the tranquil surroundings.
+Evening: Experience cultural immersion at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, delving into the rich history and heritage of the region through its captivating exhibits.
+Night: Delight in scenic views at Roundabout Menzah 6, capturing the vibrant city lights and panoramic vistas from this elevated vantage point.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Restaurant Chabrouch** is a highly-rated restaurant boasting 36 reviews and a rating of 4.2. It is located in ariana, making it convenient for locals and tourists alike. The restaurant's weekday timing is from 11:00-23:00, and it is known for its cuisine tunisienne. With its convenient location, excellent reviews, and delectable cuisine, Restaurant Chabrouch is a must-visit for anyone seeking an authentic Tunisian dining experience.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+In the city of Ariana, Terminus 6P is a bus stop situated at the coordinates (36.860202, 10.1905046). With a rating of 3.3, it has garnered mixed reviews from users.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6792,14 +10125,72 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Terminus Taxi Collectif (514, 515) located at V55W+MQ7 Terminus Taxi Collectif (514, 515), Av. Taieb Mhiri, Ariana. 
-This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.858072087073, 10.191454200752.</t>
+          <t>This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated destination (3.3) that caters specifically to Station de taxis enthusiasts, offering a selection of options for your transportation needs?</t>
+          <t>Day Plan:
+Morning: Explore the bustling streets of Ariana and visit the vibrant "aychik homestay" hostel, where you can mingle with locals and fellow travelers.
+Mid-Morning: Indulge in local cuisine at Pizza Town, known for its tantalizing pizzas and cozy ambiance.
+Midday: Discover the historical significance of Ariana at "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana", a highly-rated museum showcasing the rich cultural heritage of the region.
+Afternoon: Escape to the picturesque Sebkha Ariana, a seasonal lake surrounded by lush vegetation and wildlife, perfect for a relaxing picnic or leisurely stroll.
+Evening: Take a scenic walk to Roundabout Menzah 6, a historic monument offering panoramic city views, and capture breathtaking sunset moments.
+Night: Experience the lively atmosphere of EL BAAZZZ discotheque, known for its energetic music and vibrant ambiance, where you can dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Pizza Town**
+Nestled amidst the bustling streets of Ariana, Pizza Town offers a tantalizing culinary experience with its mouthwatering pizzas. Located conveniently at (36.846808892138, 10.174639714032), the restaurant is open daily from 11:30 am to 11:30 pm, except on public holidays. With its cozy ambiance and impeccable service, Pizza Town has earned a solid 4.0 rating among patrons.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+5D TCV(Tunis) is a bus stop located in Ariana, Tunisia. It offers a convenient spot for travelers to board or disembark buses for their transportation needs. The bus stop is situated on Rue Hassen Ibn Thabet, providing easy access to the surrounding areas. With its prime location and reliable transportation options, 5D TCV(Tunis) plays a crucial role in the public transportation network of Ariana.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6897,14 +10288,71 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a place to catch your bus, check out Terminus 635 located at Terminus 635, Ariana. 
-This top-rated destination is perfect for public transport lovers and offers a range of bus routes to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at https://www.google.com/maps/place/Terminus+635/data=!4m7!3m6!1s0x12fd34b53f9a1e25:0xf3c43ad7c1ad925d!8m2!3d36.8577551!4d10.1912879!16s%2Fg%2F11b6c5w4y_!19sChIJJR6aP7U0_RIRXZKtwdc6xPM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Terminus 635 is a bus stop located in Ariana, Tunisia. It has a rating of 3.3 out of 5 stars on Google Maps, based on 7 reviews. The bus stop is located at coordinates (36.860202, 10.1905046).</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated bus station with a wide selection of routes available, accessible through precise GPS coordinates?</t>
+          <t>Day Plan:
+**Morning:** Explore the "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" museum to discover the region's rich cultural history.
+**Mid-Morning:** Visit "Sebkha Ariana," a seasonal lake offering a serene natural setting for a leisurely stroll or bike ride.
+**Midday:** Delight in a traditional Tunisian lunch at "mT`m SlyH Restaurant Salih," renowned for its delicious cuisine and convenient location.
+**Afternoon:** Indulge in some shopping at the Ariana Mall, where you can find local crafts and souvenirs to cherish your trip.
+**Evening:** Experience the vibrant nightlife at "EL BAAZZZ" discotheque, where you can dance to energetic beats and enjoy the lively atmosphere.
+**Night:** Unwind with a relaxing evening at "LE SANCTUAIRE" bar lounge, savoring a refreshing drink and soaking in the ambiance.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Mustache is a highly-rated restaurant located at 5 Rue Ahmed Tlili, Ariana 2091, Tunisia. It serves a variety of dishes including pizzas, burgers, sandwiches, and pastas. The restaurant is open from 11:30 AM to midnight, and is closed on Mondays. Mustache has received over 75 reviews on Google Maps, with an average rating of 4.5 out of 5. Reviewers have praised the restaurant's delicious food, friendly service, and reasonable prices.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Othmane Ibn Affane is a bus stop located in Ariana, Tunisia, at coordinates (36.8445844, 10.1666019). This bus stop offers transportation services to the local community.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7002,14 +10450,71 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Ennasr 1 Bus Stop located at Ennasr 1 Bus Stop, Av. de l'Ere Nouvelle, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.858865848599, 10.165349874026. For more details, visit their website at https://www.google.com/maps/place/Ennasr+1+Bus+Stop/data=!4m7!3m6!1s0x12fd33548ba7b6f5:0xb70cc2833a4a02f7!8m2!3d36.8586584!4d10.1659396!16s%2Fg%2F1ptydwtf3!19sChIJ9bani1Qz_RIR9wJKOoPCDLc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Located in Ariana, the Ennasr 1 Bus Stop is a highly-rated transportation hub with a 4.8-star rating. It's conveniently situated on Av. de l'Ere Nouvelle, making it easily accessible for commuters.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a top-rated destination with a variety of Arret de bus offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana metro station and take a ride to experience the local transportation system.
+Mid-Morning: Visit the "aychik homestay" hostel for a local cultural immersion and learn about the daily life of the community.
+Midday: Try local cuisine at Restaurant Thailandais Thai House Ariana. Enjoy the authentic flavors and ambiance of this highly-rated restaurant.
+Afternoon: Relax with a massage at LE SANCTUAIRE, a 5-star bar lounge. Unwind and rejuvenate in the elegant atmosphere.
+Evening: Head to Poissonnerie VICINO AL MARE for a fresh seafood dinner. Experience the vibrant atmosphere and indulge in the local delicacies.
+Night: End the day at EL BAAZZZ discotheque for an energetic night out. Dance to the beats and socialize with locals to experience the nightlife scene of Ariana.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The "6B Bus Stop" is located in Ariana, at the coordinates (21.257624, 72.724922). It is a bus stop that serves the 6B bus line. The bus stop is located on a busy street and is easily accessible by foot or by public transportation.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7107,12 +10612,72 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a convenient way to get around, head to El Menzah 8 Bus Stop located at Av. Othman Ibn Affane, Ariana. This top-rated bus stop is perfect for catching a ride to your destination. With a rating of 4.4, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 36.8525273, 10.1709053.</t>
+          <t>El Menzah 8 Bus Stop is a highly rated bus stop located at Av. Othman Ibn Affane in Ariana, Tunisia. It has received an average rating of 4.4 out of 5 based on 5 reviews, indicating customer satisfaction with the services provided.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated bus stop in Ariana with precise GPS coordinates and a high user rating?</t>
+          <t>Day Plan:
+Morning: Explore the intriguing "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" museum for a captivating cultural experience.
+Mid-Morning: Immerse yourself in the flavors of Ariana by trying local cuisine at the highly-rated "mT`m SlyH Restaurant Salih," known for its authentic Tunisian dishes.
+Midday: Take a leisurely walk through the scenic "Sebkha Ariana," a seasonal lake offering a tranquil natural setting perfect for relaxation or exploration.
+Afternoon: Head to "Poissonnerie VICINO AL MARE" for a fresh seafood lunch. Then, enjoy recreational activities like biking or picnicking at the nearby "Reservoirs Eau Potable."
+Evening: Experience the lively nightlife of Ariana at "EL BAAZZZ," a discotheque renowned for its energetic ambiance and top DJs.
+Night: Wind down with a relaxing spa session at a nearby hotel.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Located in the city of Ariana (Tunisia), L'authentique is a restaurant that offers a 24/7 service, except on Sundays. 
+With a 5.0-star rating based on 2 reviews, it's a highly rated spot among customers.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The Carnoy Bus Stop is located in Ariana, Tunisia, at the coordinates (36.8445284, 10.1745315). It offers public transportation services and is easily accessible by bus. The stop boasts a rating of 4.0 from 4 reviews and is categorized as an "Arret de bus". Currently, there is no available information regarding its website, owner, workday timing, or hours of operation.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7210,15 +10775,71 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Safsaf located at Safsaf, Av. Taieb Mhiri, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.858072087073, 10.191454200752. For more details, visit their website 
-at https://www.google.com/maps/place/Safsaf/data=!4m7!3m6!1s0x12fd34b5387f362f:0x4e79b082c64d3d2d!8m2!3d36.8581025!4d10.1913291!16s%2Fg%2F11b6b9d312!19sChIJLzZ_OLU0_RIRLT1NxoKweU4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Safsaf is a bus stop in Ariana, Tunisia, located at (36.858072087073, 10.191454200752).</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where in Ariana can you enjoy top-rated Arret de bus at a must-visit destination with GPS coordinates 36.858072087073, 10.191454200752?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Sebkha Ariana lake, perfect for a stroll or a delightful picnic in its natural setting.
+Mid-Morning: Visit the Poissonnerie VICINO AL MARE fish market, where you can witness a vibrant local market offering fresh seafood.
+Midday: Indulge in a delicious meal at Restaurant Thailandais Thai House Ariana, known for its authentic Thai flavors and aromatic curries.
+Afternoon: Head to Rosmarino, a renowned pizzeria, and savor the authentic taste of Italian cuisine while enjoying the lively ambiance.
+Evening: Experience the cultural immersion at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana museum, showcasing the rich cultural heritage of Ariana.
+Night: Conclude the day with a relaxing evening at LE SANCTUAIRE, a bar lounge, and unwind with a refreshing beverage in its cozy and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+La Tavolata is a restaurant located in Ariana, Tunisia. It offers a variety of dishes, including pizza, pasta, and seafood. The restaurant is open daily from 12:00pm to 11:00pm and is located at V556+9JV La Tavolata, Av. Hedi Nouira, Ariana.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The Othmane Ibn Affane is a bus stop located at the following address : Othmane Ibn Affane, Ariana. The bus stop is located at the coordinates (36.839720021055, 10.103797096582).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7316,12 +10937,72 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a bus stop, check out Carnoy Bus Stop located at Ariana. This highly rated destination is perfect for bus stop users and offers a range of services. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8445284, 10.1745315.</t>
+          <t>The Carnoy Bus Stop is located in Ariana, Tunisia, at the coordinates (36.8445284, 10.1745315). It offers public transportation services and is easily accessible by bus. The stop boasts a rating of 4.0 from 4 reviews and is categorized as an "Arret de bus". Currently, there is no available information regarding its website, owner, workday timing, or hours of operation.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated bus stop with convenient amenities in Ariana, as indicated by its impressive 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the Roundabout Menzah 6 monument, a historical landmark that embodies the city's heritage. Take a leisurely stroll and appreciate its architectural design.
+Mid-Morning: Visit Poissonnerie VICINO AL MARE, a local fish market, to experience the vibrant atmosphere and witness the freshest seafood in town.
+Midday: Indulge in a culinary adventure at Restaurant Thailandais Thai House Ariana, renowned for its authentic Thai flavors. Savor the delightful curries and stir-fries.
+Afternoon: Head to Rosmarino Pizzeria for a delectable dining experience. Relish the authentic Italian pizzas in a cozy and welcoming ambiance.
+Evening: Immerse yourself in the cultural heritage of Ariana by visiting the highly-rated jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana museum. Explore the rich history and traditions of the region.
+Night: Enjoy a relaxing retreat at La Coupole cafe, a charming spot to unwind with a cup of cafe au lait and indulge in their delicious crepes.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Located in the city of Ariana (Tunisia), L'authentique is a restaurant that offers a 24/7 service, except on Sundays. 
+With a 5.0-star rating based on 2 reviews, it's a highly rated spot among customers.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Othmane Ibn Affane is a bus stop located in Ariana, Tunisia, at coordinates (36.8445844, 10.1666019). This bus stop offers transportation services to the local community.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7419,12 +11100,72 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a place to rest your feet, check out El Menzah 7 (47, 5C, 5D) located at Rue Mouawiya Ibn Abi Sofiene, Ariana. This well-rated destination is perfect for bus stop lovers and has a rating of 3.3, making it a must-visit spot. To get there, use these GPS coordinates: 36.855111625206, 10.176651154696. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+7+%2847,+5C,+5D%29/data=!4m7!3m6!1s0x12fd334fef44c381:0x1af5d7ece094659e!8m2!3d36.8525461!4d10.1595425!16s%2Fg%2F1t_gbcq6!19sChIJgcNE708z_RIRnmWU4OzX9Ro?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Menzah 7 (47, 5C, 5D) is a bus stop located in Ariana, Tunisia, at the coordinates (36.855111625206, 10.176651154696). It offers a convenient transportation option for residents and visitors of the area.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you relax in Ariana with a bus-friendly location and a notable rating, steps away from GPS coordinates 36.855111625206, 10.176651154696?</t>
+          <t>Day Plan:
+Morning: Exploring Hotel Ennasr and its luxurious amenities
+Mid-Morning: Trying local cuisine at Pizza Town for a tantalizing culinary experience
+Midday: Visiting Poissonnerie VICINO AL MARE for fresh fish and seafood, a staple of the local diet
+Afternoon: Relaxing with a stroll through Sebkha Ariana, enjoying the picturesque lake and lush surroundings
+Evening: Shopping for souvenirs and local products at the bustling Ariana Market
+Night: Experiencing the vibrant nightlife at EL BAAZZZ, a renowned discotheque with excellent reviews</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+**Pizza Town**
+Nestled amidst the bustling streets of Ariana, Pizza Town offers a tantalizing culinary experience with its mouthwatering pizzas. Located conveniently at (36.846808892138, 10.174639714032), the restaurant is open daily from 11:30 am to 11:30 pm, except on public holidays. With its cozy ambiance and impeccable service, Pizza Town has earned a solid 4.0 rating among patrons.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Terminus 635 is a bus stop located in Ariana, Tunisia. It has a rating of 3.3 out of 5 stars on Google Maps, based on 7 reviews. The bus stop is located at coordinates (36.860202, 10.1905046).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7522,14 +11263,71 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a reliable taxi service, check out Transport non urbain located at V55Q+P6J Transport non urbain. 
-This destination is perfect for those seeking transportation services and offers a range of options to choose from. 
-With a rating of 2.5, it's a notable spot in the area. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>Transport non urbain is a taxi station located in Ariana, Tunisia at the coordinates (36.860202, 10.1905046). It has received a 2.5-star rating based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a taxi service with a notable rating and range of transportation options?</t>
+          <t>Day Plan:
+Morning: Explore the Ariana Mosque, a beautiful and historic mosque in the heart of Ariana.
+Mid-Morning: Visit the "aychik homestay" hostel, known for its friendly atmosphere and comfortable accommodations.
+Midday: Have lunch at the highly-rated Restaurant Thailandais Thai House Ariana, known for its authentic and delicious Thai cuisine.
+Afternoon: Take a leisurely walk along the Sebkha Ariana, a stunning natural lake with lush vegetation and wildlife, perfect for nature enthusiasts.
+Evening: Enjoy dinner at Rosmarino, a popular pizzeria in Ariana serving authentic Italian cuisine with inviting ambiance and a wide selection of pizzas and other dishes.
+Night: Experience the city's vibrant nightlife at EL BAAZZZ discotheque, a lively and popular spot with a 5.0 rating and open on weekends until 5 AM.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Damascino is a oriental restaurant located in Ariana, Tunisia (36.854167784031, 10.172850177704). It has received 314 reviews and has a rating of 4.1 out of 5. The restaurant offers a wide variety of oriental dishes, including Syrian and Lebanese cuisine. It is known for its generous portions, high quality ingredients, and friendly service.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The Othmane Ibn Affane is a bus stop located at the following address : Othmane Ibn Affane, Ariana. The bus stop is located at the coordinates (36.839720021055, 10.103797096582).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7627,14 +11425,71 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a place to wait for a bus, check out Avenue de l'Ere Nouvelle 2 Bus Stop located at Avenue de l'Ere Nouvelle 2 Bus Stop, Ariana. 
-This top-rated destination is perfect for bus stop lovers and offers a range of bus stop services to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.859426502007, 10.152863817965.</t>
+          <t>This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly rated bus stop with excellent amenities and a prime location?</t>
+          <t>Day Plan:
+Morning: Exploring The Penthouse for its comfortable accommodations and entertainment amenities.
+Mid-Morning: Trying local cuisine at Restaurant Thailandais Thai House Ariana for its highly-rated Thai dishes.
+Midday: Visiting Roundabout Menzah 6 for its historical significance.
+Afternoon: Enjoying a relaxing afternoon at Sebkha Ariana, taking in the beautiful natural setting and engaging in outdoor activities.
+Evening: Shopping at mzall  or Ariana Mall for a variety of retail options.
+Night: Participating in the lively atmosphere at EL BAAZZZ discotheque.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant les dents de la mer is a seafood restaurant located in Ariana, Tunisia. It is rated 3.5 out of 5 stars on Google and has 38 reviews. The restaurant offers a variety of seafood dishes, including fish, shrimp, and calamari. It is also known for its affordable prices. The restaurant is located at V53F+MCH Restaurant les dents de la mer, Ariana, and is open daily from 11:00 am to 11:00 pm.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 6 Bus Stop is located in Ariana, Tunisia, at the coordinates (36.85539711586, 10.176995196462). It has a 4.0 rating based on 3 reviews. The bus stop is located in El Menzah 6, on Rue Mouawiya Ibn Abi Sofiene.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7732,13 +11587,71 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out El Menzah 7 (47, 5C, 5D). This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: nan. To get there, use these GPS coordinates: 
-36.8521303, 10.158535.</t>
+          <t>El Menzah 7 is an Ariana bus stop located at coordinates (36.8521303, 10.158535) with 3 Google reviews and a rating of 3.7 out of 5.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find El Menzah 7, a top-rated destination for Arret de bus enthusiasts, open during nan hours and boasting a rating of 3.7?</t>
+          <t>Day Plan:
+Morning: Exploring the Ariana metro station and learning about the local transportation system.
+Mid-Morning: Trying local cuisine at mT`m SlyH Restaurant Salih for a taste of traditional Tunisian dishes.
+Midday: Visiting Roundabout Menzah 6, a historical landmark, and admiring its architectural beauty.
+Afternoon: Enjoying a relaxing walk or bike ride at Sebkha Ariana, a nearby lake, and taking in the scenic views.
+Evening: Shopping for souvenirs and local products at Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, a popular market known for its authentic goods.
+Night: Participating in a cultural immersion event at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, engaging with the local community and learning about their traditions.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Located in Ariana, the Ennasr 1 Bus Stop is a highly-rated transportation hub with a 4.8-star rating. It's conveniently situated on Av. de l'Ere Nouvelle, making it easily accessible for commuters.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7832,12 +11745,71 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>Located in Ariana, Terminus 6P is a highly-rated bus stop with a 3.3 rating. It's a convenient destination for anyone in need of public transportation services. To get to Terminus 6P, use the GPS coordinates (36.860202, 10.1905046) or visit their website for more information.</t>
+          <t>In the city of Ariana, Terminus 6P is a bus stop situated at the coordinates (36.860202, 10.1905046). With a rating of 3.3, it has garnered mixed reviews from users.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Terminus 6P bus stop located and what distinguishes it from other locations?</t>
+          <t>Day Plan:
+Morning: Explore "The Penthouse" apart-hotel, known for its spacious rooms, suites, and recreational facilities like a skating rink and bowling alley.
+Mid-Morning: Visit the high-rated "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana" museum to immerse yourself in the rich history and heritage of Ariana.
+Midday: Try local cuisine at "Rozana Kebab," a popular Syrian restaurant known for its delicious chawarmas and hamburgers.
+Afternoon: Engage in outdoor activities at Sebkha Ariana, a beautiful seasonal lake perfect for relaxation, exploration, fishing, and birdwatching.
+Evening: Enjoy scenic views at "Roundabout Menzah 6," a monument offering a panoramic perspective of the city.
+Night: Experience cultural immersion at the "LE SANCTUAIRE," a highly-rated bar lounge in Ariana, known for its unique ambiance and 5-star service.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Restaurant les dents de la mer is a restaurant specializing in seafood located in Ariana (lon : 7.2731809, lat : 43.6956481). It has 38 reviews on google map with an average note of 3.5 / 5. According to the reviews, the prices are affordable and the seafood is of good quality.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Othmane Ibn Affane is a bus stop located in Ariana, Tunisia, at coordinates (36.8445844, 10.1666019). This bus stop offers transportation services to the local community.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7935,13 +11907,71 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a bus stop, check out El Menzah 6 Bus Stop located at Rue Mouawiya Ibn Abi Sofiene. 
-This top-rated destination is perfect for bus lovers and has a rating of 4.0. It's open during these hours: not specified, but closed on not mentioned. To get there, use these GPS coordinates: 36.85539711586, 10.176995196462. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+6+Bus+Stop/data=!4m7!3m6!1s0x12fd3350ee582e01:0x4decc31e05921e90!8m2!3d36.8525139!4d10.162788!16s%2Fg%2F1ptwg6hgz!19sChIJAS5Y7lAz_RIRkB6SBR7D7E0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>El Menzah 6 Bus Stop is located in Ariana, Tunisia, at the coordinates (36.85539711586, 10.176995196462). It has a 4.0 rating based on 3 reviews. The bus stop is located in El Menzah 6, on Rue Mouawiya Ibn Abi Sofiene.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>What is the location of the highly-rated El Menzah 6 Bus Stop in Ariana, known for its convenience and accessibility?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Sebkha Ariana, a beautiful seasonal lake, and taking a relaxing walk amidst the lush vegetation (Sebkha Ariana)
+Mid-Morning: Visiting the Roundabout Menzah 6, an iconic monument known for its central location (Roundabout Menzah 6)
+Midday: Trying local cuisine at Restaurant Thailandais Thai House Ariana, which serves authentic and flavorful Thai dishes (Restaurant Thailandais Thai House Ariana)
+Afternoon: Enjoying shopping at the Ariana Mall, a modern shopping center with a wide variety of stores and boutiques (Ariana Mall)
+Evening: Experiencing cultural immersion at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, a local organization dedicated to cultural preservation (jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana)
+Night: Relaxing with a delightful dining experience at Ninos, a family-friendly restaurant renowned for its diverse menu and extensive children's play area (Ninos)</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 6 is a bus stop located at El Menzah 6 (5C, 5D), Rue Mouawiya Ibn Abi Sofiene, Ariana. It is rated 5.0 and has 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8039,14 +12069,71 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out El Menzah 8 (5C, 5D) located at Rue Doha, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.855591995109, 10.170164364469. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+8+%285C,+5D%29/data=!4m7!3m6!1s0x12fd33560d167feb:0x649352629c2d7763!8m2!3d36.8548791!4d10.1690215!16s%2Fg%2F1tp6lq65!19sChIJ638WDVYz_RIRY3ctnGJSk2Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>El Menzah 8 (5C, 5D) is a bus stop located in the Ariana district. It offers public transportation services to the local community, making it a convenient option for commuters and travelers alike. The bus stop is situated at the intersection of Rue Doha and El Menzah 8, providing easy access to nearby businesses, residential areas, and other transportation hubs.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a top-rated destination with a variety of options for Arret de bus lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmarks of Ariana by taking a guided tour of the Roundabout Menzah 6 and the Ariana Mosque.
+Mid-Morning: Visit the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana museum to gain insights into the rich cultural heritage of the region.
+Midday: Indulge in a delicious lunch at Ninos, a family-friendly restaurant known for its extensive menu and children's play area.
+Afternoon: Rejuvenate with a relaxing spa experience at a local spa, such as the Hotel Ennasr, offering a range of treatments to soothe your body and mind.
+Evening: Immerse yourself in the captivating nightlife of Ariana by visiting EL BAAZZZ discotheque, renowned for its vibrant atmosphere and lively music.
+Night: Conclude the day with a memorable dinner at Hamburgasm, a highly-rated restaurant specializing in mouthwatering burgers made from premium ingredients.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Ennahli is a bus stop located in ariana, Tunisia at the coordinates (36.8894577, 10.1601223). This place has a rating of 4.0 out of 5 based on 2 reviews.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8144,12 +12231,78 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out mHT@ lHflt b'ryn@ Terminus located at V56X+359 mHT@ lHflt b'ryn@ Terminus, Ariana. This top-rated destination is perfect for Service de transport lovers and offers a range of Service de transport to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly-rated destination with a wide selection of Service de transport options?</t>
+          <t>Day Plan:
+Morning:
+- Start the day with a visit to the iconic Ariana metro station, a key part of the city's transportation system.
+Mid-Morning:
+- Embark on a guided tour of the fascinating Sebkha Ariana, a picturesque seasonal lake offering a serene natural setting.
+Midday:
+- Indulge in a tantalizing lunch at Restaurant Thailandais Thai House Ariana, renowned for its authentic Thai cuisine.
+Afternoon:
+- Engage in some retail therapy at Ariana Mall, a popular shopping destination offering a wide selection of local and international brands.
+Evening:
+- Head to LE SANCTUAIRE, a vibrant bar lounge, for a relaxing evening ambiance and refreshing drinks.
+Night:
+- Conclude the day with a delightful dinner at Mr Meat, an American restaurant known for its delectable burgers and welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Located in the city of Ariana (Tunisia), L'authentique is a restaurant that offers a 24/7 service, except on Sundays. 
+With a 5.0-star rating based on 2 reviews, it's a highly rated spot among customers.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 6 Bus Stop is located in Ariana, Tunisia, at the coordinates (36.85539711586, 10.176995196462). It has a 4.0 rating based on 3 reviews. The bus stop is located in El Menzah 6, on Rue Mouawiya Ibn Abi Sofiene.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8247,13 +12400,73 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out 5D TCV(Tunis) located at Rue Hassen Ibn Thabet, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.850754470646, 10.159461370939. For more details, visit their website at https://www.google.com/maps/place/5D+TCV%28Tunis%29/data=!4m7!3m6!1s0x12fd334546e75555:0x522978a301d58fc9!8m2!3d36.8497624!4d10.1583463!16s%2Fg%2F1td0jxy9!19sChIJVVXnRkUz_RIRyY_VAaN4KVI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>5D TCV(Tunis) is a bus stop located in Ariana, Tunisia. It offers a convenient spot for travelers to board or disembark buses for their transportation needs. The bus stop is situated on Rue Hassen Ibn Thabet, providing easy access to the surrounding areas. With its prime location and reliable transportation options, 5D TCV(Tunis) plays a crucial role in the public transportation network of Ariana.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a highly rated destination for Arret de bus lovers with GPS coordinates 36.850754470646, 10.159461370939?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant "aychik homestay" hostel and immerse yourself in the local culture by interacting with other guests and staff.
+Mid-Morning: Take a leisurely stroll to "Poissonnerie VICINO AL MARE" fish market to witness the bustling atmosphere and purchase fresh seafood for a delightful lunch.
+Midday: Head to one of Ariana's renowned restaurants, such as "Echemi Ennasr" or "Mr Meat," to savor the authentic flavors of Tunisian cuisine.
+Afternoon: Engage in outdoor activities at "Sebkha Ariana," a scenic seasonal lake, where you can enjoy a relaxing walk, bike ride, or picnic amidst the beautiful natural surroundings.
+Evening: Immerse yourself in the city's nightlife at "EL BAAZZZ," a lively discotheque with its unique ambiance and energetic atmosphere.
+Night: End the day with a relaxing stay at "LE SANCTUAIRE," a highly-rated 24-hour bar lounge, where you can unwind and soak in the city's vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Echemi Ennasr, located in the bustling city of Ariana, offers a delectable dining experience in a friendly and welcoming atmosphere. This reputed restaurant has earned a remarkable 4.0 rating based on the reviews of 152 satisfied customers.
+One of Echemi Ennasr's notable features is its extensive menu, which includes a wide variety of dishes to cater to diverse tastes. It is particularly renowned for its sandwiches, pizzas, and escalopes. The restaurant takes pride in using only the finest ingredients, ensuring freshness and impeccable quality with every dish.
+Situated at coordinates (36.864739580827, 10.167664519529), Echemi Ennasr is conveniently located in the Residence Ettaoufik, 2 Av. Hedi Nouira, making it easily accessible to both locals and visitors. Whether you're seeking a quick bite or a leisurely dining experience, Echemi Ennasr is an excellent choice.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8351,12 +12564,77 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Othmane Ibn Affane located at Othmane Ibn Affane, Ariana. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.839720021055, 10.103797096582.</t>
+          <t>The Othmane Ibn Affane is a bus stop located at the following address : Othmane Ibn Affane, Ariana. The bus stop is located at the coordinates (36.839720021055, 10.103797096582).</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where can you go in Ariana for a highly rated Arret de bus experience with GPS coordinates of 36.839720021055, 10.103797096582?</t>
+          <t>Day Plan:
+Morning:
+- Explore the bustling streets of Ariana, discovering hidden gems and local markets.
+Mid-Morning:
+- Indulge in a traditional Tunisian breakfast at mT`m SlyH Restaurant Salih, savoring the authentic flavors of the region.
+Midday:
+- Visit the Ariana Mosque, marveling at its architectural beauty and historical significance.
+Afternoon:
+- Escape to the tranquil Sebkha Ariana, enjoying a picturesque picnic surrounded by nature's serenity.
+Evening:
+- Experience the vibrant atmosphere of EL BAAZZZ discotheque, dancing the night away to lively tunes.
+Night:
+- Relish a delectable dinner at Restaurant Thailandais Thai House Ariana, tantalizing your taste buds with exotic Thai flavors.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Piacere is a charming restaurant nestled in the heart of Ariana. Boasting a 4.5-star rating, it offers a delicious and varied menu with options like pizza, pasta, and chicken. Customers rave about the warm and inviting ambiance, friendly staff, and reasonable prices. Located at the Residence la Princesse on Avenue Hedi Nouira, Piacere is open daily from noon to 11 pm, providing a delightful dining experience for both locals and visitors alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 7 is an Ariana bus stop located at coordinates (36.8521303, 10.158535) with 3 Google reviews and a rating of 3.7 out of 5.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8454,12 +12732,71 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Othmane Ibn Affane located at Othmane Ibn Affane, Av. Othman Ibn Affane. This top-rated destination is perfect for Arret de bus lovers. With a rating of 4.0, it's a must-visit spot. It's open during regular hours, but closed on If you need more details, visit the link https://www.google.com/maps/place/Othmane+Ibn+Affane/data=!4m7!3m6!1s0x12fd335ec8d31f25:0x55a84ec672434c39!8m2!3d36.8445552!4d10.166468!16s%2Fg%2F1pv043w2_!19sChIJJR_TyF4z_RIROUxDcsZOqFU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Othmane Ibn Affane is a bus stop located in Ariana, Tunisia, at coordinates (36.8445844, 10.1666019). This bus stop offers transportation services to the local community.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a top-rated destination with a 4.0 rating that caters to Arret de bus enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the historical sites of "aychik homestay"
+Mid-Morning: Trying local cuisine at Restaurant Chez Mamino
+Midday: Visiting the beautiful Sebkha Ariana
+Afternoon: Enjoying scenic views at Roundabout Menzah 6
+Evening: Relaxing with a massage at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana
+Night: Dancing the night away at EL BAAZZZ</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 7 (47, 5C, 5D) is a bus stop located in Ariana, Tunisia, at the coordinates (36.855111625206, 10.176651154696). It offers a convenient transportation option for residents and visitors of the area.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8557,12 +12894,71 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in ariana and seeking a bus stop, consider Le College situated on Rue Mustapha Abdessalem, Ariana. This well-regarded location has a rating of 3.0, making it a must-visit destination. The GPS coordinates for your convenience are: (36.851716019794, 10.173862666252). For further information, explore their website at https://www.google.com/maps/place/Le+Coll%C3%A8ge/data=!4m7!3m6!1s0x12fd34a8efa705ff:0x35ee73ba8086c92d!8m2!3d36.8516468!4d10.1739943!16s%2Fg%2F1ptw2rcg2!19sChIJ_wWn76g0_RIRLcmGgLpz7jU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le College is a bus stop located in Ariana, Tunisia. It offers a convenient and accessible spot for commuters to catch public transportation. The bus stop is situated at the coordinates (36.851716019794, 10.173862666252) and is easily accessible by foot, bike, or car.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Which bus stop in Ariana is particularly noteworthy with a rating of 3.0 and GPS coordinates of (36.851716019794, 10.173862666252)?</t>
+          <t>Day Plan:
+Morning: Try local cuisine at Poissonnerie VICINO AL MARE
+Mid-Morning: Explore Sebkha Ariana
+Midday: Enjoy lunch at Mr Meat
+Afternoon: Visit jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana
+Evening: Dine at Restaurant Thailandais Thai House Ariana
+Night: Experience cultural immersion at LE SANCTUAIRE</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+La Tavolata is a restaurant located in Ariana, Tunisia. It offers a variety of dishes, including pizza, pasta, and seafood. The restaurant is open daily from 12:00pm to 11:00pm and is located at V556+9JV La Tavolata, Av. Hedi Nouira, Ariana.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 8 (5C, 5D) is a bus stop located in the Ariana district. It offers public transportation services to the local community, making it a convenient option for commuters and travelers alike. The bus stop is situated at the intersection of Rue Doha and El Menzah 8, providing easy access to nearby businesses, residential areas, and other transportation hubs.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8660,13 +13056,77 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out El Menzah 6 (5C, 5D) located at Rue Mouawiya Ibn Abi Sofiene, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+6+%285C,+5D%29/data=!4m7!3m6!1s0x12fd3350cb75a447:0x14392aaf8bb403d7!8m2!3d36.8521684!4d10.1645556!16s%2Fg%2F1tgccmr6!19sChIJR6R1y1Az_RIR1wO0i68qORQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>El Menzah 6 is a bus stop located at El Menzah 6 (5C, 5D), Rue Mouawiya Ibn Abi Sofiene, Ariana. It is rated 5.0 and has 2 reviews.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where in Ariana can you find a top-rated destination (rated 5.0) perfect for "Arret de bus" lovers, located at Rue Mouawiya Ibn Abi Sofiene?</t>
+          <t>Day Plan:
+**Morning**:
+- Visit the Ariana metro station, an important transportation hub in the city.
+**Mid-Morning**:
+- Explore Sebkha Ariana, a seasonal lake offering a peaceful setting for nature enthusiasts.
+**Midday**:
+- Try local cuisine at Mr Meat, an American restaurant known for its wide variety of dishes.
+**Afternoon**:
+- Engage in outdoor activities at Roundabout Menzah 6, a monument providing a scenic backdrop.
+**Evening**:
+- Experience cultural immersion at the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, an organization showcasing local culture.
+**Night**:
+- Relax with a stay at The Penthouse, a hotel offering luxurious accommodations and amenities.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+Safsaf is a bus stop in Ariana, Tunisia, located at (36.858072087073, 10.191454200752).
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8760,12 +13220,71 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Ennahli located at Ennahli, shr` jwd@ lHy@. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8894577, 10.1601223.</t>
+          <t>Ennahli is a bus stop located in ariana, Tunisia at the coordinates (36.8894577, 10.1601223). This place has a rating of 4.0 out of 5 based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where can you find a popular Arret de bus destination with a high rating in Ariana?</t>
+          <t>**Day Plan:**
+**Morning:** Exploring Ariana Park
+**Mid-Morning:** Trying local cuisine at Poissonnerie VICINO AL MARE
+**Midday:** Visiting the Ariana metro station
+**Afternoon:** Enjoying scenic views at mT`m SlyH Restaurant Salih
+**Evening:** Participating in a guided tour of "aychik homestay"
+**Night:** Relaxing with a massage at The Penthouse</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Damascino is a oriental restaurant located in Ariana, Tunisia (36.854167784031, 10.172850177704). It has received 314 reviews and has a rating of 4.1 out of 5. The restaurant offers a wide variety of oriental dishes, including Syrian and Lebanese cuisine. It is known for its generous portions, high quality ingredients, and friendly service.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8859,12 +13378,71 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in Ariana and need to travel, check out 6B Bus Stop located at Ariana. This top-rated destination is perfect for public transport riders and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 21.257624, 72.724922. For more details, visit their website at https://www.google.com/maps/place/6B+Bus+Stop/data=!4m7!3m6!1s0x12fd34ad03248f8d:0xc447072e86d3ed6f!8m2!3d36.8579309!4d10.1789403!16s%2Fg%2F11gz8dbp7!19sChIJjY8kA600_RIRb-3Thi4HR8Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The "6B Bus Stop" is located in Ariana, at the coordinates (21.257624, 72.724922). It is a bus stop that serves the 6B bus line. The bus stop is located on a busy street and is easily accessible by foot or by public transportation.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated transportation hub in Ariana, perfect for public transport users with its comprehensive services?</t>
+          <t>Day Plan:
+Morning: Explore the cultural heritage at "jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana"
+Mid-Morning: Indulge in local cuisine at "Rozana Kebab," known for its delicious chawarmas and hamburgers
+Midday: Visit the "Sebkha Ariana" seasonal lake, offering a tranquil setting for a relaxing picnic or nature walk
+Afternoon: Experience the vibrant flavors of Thailand at "Restaurant Thailandais Thai House Ariana," with its authentic curries and stir-fries
+Evening: Catch a captivating movie at "Le Samouraï" cinema
+Night: Unwind and rejuvenate with a luxurious spa treatment at "The Penthouse" aparthotel, followed by a delightful dinner at "Ninos," renowned for its family-friendly atmosphere and exquisite menu</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+El Menzah 7 (47, 5C, 5D) is a bus stop located in Ariana, Tunisia, at the coordinates (36.855111625206, 10.176651154696). It offers a convenient transportation option for residents and visitors of the area.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8966,12 +13544,71 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Station Palestine (direction : Ariana) located at 95 Rue de La Palestine, Jeanne d'Arc 1002. This top-rated destination is perfect for Compagnie de transport ferroviaire lovers. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.818970705764, 10.179573469879. For more details, visit their website at https://www.transtu.tn/fr/.</t>
+          <t>The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you find a popular spot in Ariana, known for attracting Compagnie de transport ferroviaire enthusiasts, with excellent ratings and easily accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore The Penthouse, a friendly aparthotel known for its comfortable accommodations. Take advantage of the skating rink and bowling alley for a fun-filled morning.
+Mid-Morning: Try local cuisine at Poissonnerie VICINO AL MARE, a fish market offering a wide variety of fresh seafood.
+Midday: Visit Roundabout Menzah 6, a notable monument in Ariana, and admire its unique architecture.
+Afternoon: Take a break at LE SANCTUAIRE, a 24h bar with a 5-star rating, and enjoy a refreshing beverage in its inviting ambiance.
+Evening: Dine at Restaurant Thailandais Thai House Ariana, a highly-rated Thai restaurant known for its authentic flavors and friendly service.
+Night: Head to EL BAAZZZ, a discotheque with a lively nightlife experience, and dance the night away to vibrant beats.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.
+"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.
+HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).
+Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.
+Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).
+This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.
+Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.
+Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.
+EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.
+LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.
+JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.
+Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.
+Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.
+Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.
+Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.
+Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.
+Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.
+La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).
+Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.
+mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.
+**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.
+mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.
+The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.
+This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.
+This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).
+The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
